--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_14_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_14_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1681099.164608596</v>
+        <v>-1681776.985288867</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313298.451505232</v>
+        <v>313298.4515052319</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058538</v>
+        <v>632041.4518058548</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.3609804240278436</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="H11" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="I11" t="n">
-        <v>46.2136088607981</v>
+        <v>46.21360886079829</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.88999934163189</v>
+        <v>32.88999934163209</v>
       </c>
       <c r="T11" t="n">
-        <v>28.03643329293212</v>
+        <v>28.03643329293232</v>
       </c>
       <c r="U11" t="n">
-        <v>55.76720738385716</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>66.64307131377589</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>51.93274503525221</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.136586121265598</v>
+        <v>6.136586121265594</v>
       </c>
       <c r="R12" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="S12" t="n">
-        <v>59.59896230682322</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>20.56530653072786</v>
+        <v>20.56530653072805</v>
       </c>
       <c r="U12" t="n">
-        <v>42.84521610603965</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="V12" t="n">
-        <v>46.26644524054743</v>
+        <v>78.59407041505762</v>
       </c>
       <c r="W12" t="n">
-        <v>72.32210790215677</v>
+        <v>72.32210790215697</v>
       </c>
       <c r="X12" t="n">
-        <v>22.93043876461579</v>
+        <v>22.93043876461599</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.0018104591708</v>
+        <v>29.001810459171</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.831062059420391</v>
+        <v>8.83106205942059</v>
       </c>
       <c r="S13" t="n">
-        <v>40.97168601871252</v>
+        <v>40.97168601871272</v>
       </c>
       <c r="T13" t="n">
-        <v>29.35851686199494</v>
+        <v>29.35851686199514</v>
       </c>
       <c r="U13" t="n">
-        <v>94.27381875013454</v>
+        <v>94.27381875013474</v>
       </c>
       <c r="V13" t="n">
-        <v>50.72653950959509</v>
+        <v>50.72653950959528</v>
       </c>
       <c r="W13" t="n">
-        <v>95.92823141448051</v>
+        <v>95.92823141448071</v>
       </c>
       <c r="X13" t="n">
-        <v>27.53697973338771</v>
+        <v>27.53697973338791</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.7587971393136</v>
+        <v>22.7587971393138</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>107.5010219193908</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>66.64307131377575</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="I14" t="n">
-        <v>46.2136088607981</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.88999934163189</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>28.03643329293212</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>55.76720738385717</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.136586121265598</v>
+        <v>6.136586121265594</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>59.59896230682238</v>
       </c>
       <c r="T15" t="n">
-        <v>20.56530653072786</v>
+        <v>20.56530653072805</v>
       </c>
       <c r="U15" t="n">
-        <v>102.4441784128629</v>
+        <v>42.84521610603985</v>
       </c>
       <c r="V15" t="n">
-        <v>46.26644524054743</v>
+        <v>46.26644524054763</v>
       </c>
       <c r="W15" t="n">
-        <v>72.32210790215677</v>
+        <v>72.32210790215697</v>
       </c>
       <c r="X15" t="n">
-        <v>22.93043876461579</v>
+        <v>22.93043876461599</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.0018104591708</v>
+        <v>29.001810459171</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>8.831062059420391</v>
+        <v>8.83106205942059</v>
       </c>
       <c r="S16" t="n">
-        <v>40.97168601871252</v>
+        <v>40.97168601871272</v>
       </c>
       <c r="T16" t="n">
-        <v>29.35851686199494</v>
+        <v>29.35851686199514</v>
       </c>
       <c r="U16" t="n">
-        <v>94.27381875013454</v>
+        <v>94.27381875013474</v>
       </c>
       <c r="V16" t="n">
-        <v>50.72653950959509</v>
+        <v>50.72653950959528</v>
       </c>
       <c r="W16" t="n">
-        <v>95.92823141448051</v>
+        <v>95.92823141448071</v>
       </c>
       <c r="X16" t="n">
-        <v>27.53697973338771</v>
+        <v>27.53697973338791</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.7587971393136</v>
+        <v>22.7587971393138</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>82.31946603086146</v>
       </c>
       <c r="G17" t="n">
-        <v>97.94765892927438</v>
+        <v>97.94765892927441</v>
       </c>
       <c r="H17" t="n">
-        <v>26.0317220423338</v>
+        <v>26.03172204233381</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="I18" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.93274503525221</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,10 +1965,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.136586121265598</v>
+        <v>6.136586121265594</v>
       </c>
       <c r="R18" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>101.3644357981252</v>
       </c>
       <c r="X18" t="n">
-        <v>64.31525006275611</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.20745676868125</v>
+        <v>53.20745676868131</v>
       </c>
       <c r="C20" t="n">
-        <v>29.32571377202675</v>
+        <v>29.3257137720268</v>
       </c>
       <c r="D20" t="n">
-        <v>16.89237603307521</v>
+        <v>16.89237603307527</v>
       </c>
       <c r="E20" t="n">
-        <v>50.59912845248408</v>
+        <v>50.59912845248414</v>
       </c>
       <c r="F20" t="n">
-        <v>82.31946603086141</v>
+        <v>82.31946603086146</v>
       </c>
       <c r="G20" t="n">
-        <v>97.94765892927435</v>
+        <v>97.94765892927441</v>
       </c>
       <c r="H20" t="n">
-        <v>26.03172204233374</v>
+        <v>26.0317220423338</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>17.01668021661482</v>
+        <v>17.01668021661487</v>
       </c>
       <c r="X20" t="n">
-        <v>38.90293068555405</v>
+        <v>38.90293068555411</v>
       </c>
       <c r="Y20" t="n">
-        <v>61.40578380929782</v>
+        <v>61.40578380929787</v>
       </c>
     </row>
     <row r="21">
@@ -2166,16 +2166,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>49.43169076287286</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2202,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.136586121265598</v>
+        <v>6.136586121265594</v>
       </c>
       <c r="R21" t="n">
-        <v>122.0492982736043</v>
+        <v>49.43169076287296</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2217,16 +2217,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53.20745676868125</v>
+        <v>53.20745676868131</v>
       </c>
       <c r="C23" t="n">
-        <v>29.32571377202675</v>
+        <v>29.3257137720268</v>
       </c>
       <c r="D23" t="n">
-        <v>16.89237603307521</v>
+        <v>16.89237603307527</v>
       </c>
       <c r="E23" t="n">
-        <v>50.59912845248408</v>
+        <v>50.59912845248414</v>
       </c>
       <c r="F23" t="n">
-        <v>82.31946603086141</v>
+        <v>82.31946603086146</v>
       </c>
       <c r="G23" t="n">
-        <v>97.94765892927435</v>
+        <v>97.94765892927441</v>
       </c>
       <c r="H23" t="n">
-        <v>26.03172204233374</v>
+        <v>26.03172204233381</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>17.01668021661482</v>
+        <v>17.01668021661487</v>
       </c>
       <c r="X23" t="n">
-        <v>38.90293068555405</v>
+        <v>38.90293068555411</v>
       </c>
       <c r="Y23" t="n">
-        <v>61.40578380929782</v>
+        <v>61.40578380929787</v>
       </c>
     </row>
     <row r="24">
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>64.31525006275611</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>107.1657389737211</v>
+        <v>49.43169076287297</v>
       </c>
       <c r="J24" t="n">
         <v>51.93274503525221</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.136586121265598</v>
+        <v>6.136586121265594</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2451,13 +2451,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.1700831296931</v>
+        <v>161.170083129693</v>
       </c>
       <c r="C26" t="n">
-        <v>137.2883401330386</v>
+        <v>137.2883401330385</v>
       </c>
       <c r="D26" t="n">
         <v>124.855002394087</v>
       </c>
       <c r="E26" t="n">
-        <v>158.5617548134959</v>
+        <v>158.5617548134958</v>
       </c>
       <c r="F26" t="n">
         <v>190.2820923918732</v>
@@ -2570,10 +2570,10 @@
         <v>205.9102852902861</v>
       </c>
       <c r="H26" t="n">
-        <v>133.9943484033456</v>
+        <v>133.9943484033455</v>
       </c>
       <c r="I26" t="n">
-        <v>27.67892728751266</v>
+        <v>27.67892728751261</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.35531776834645</v>
+        <v>14.3553177683464</v>
       </c>
       <c r="T26" t="n">
-        <v>9.501751719646677</v>
+        <v>9.50175171964662</v>
       </c>
       <c r="U26" t="n">
-        <v>37.23252581057173</v>
+        <v>37.23252581057167</v>
       </c>
       <c r="V26" t="n">
-        <v>107.9626263610118</v>
+        <v>107.9626263610117</v>
       </c>
       <c r="W26" t="n">
         <v>124.9793065776266</v>
       </c>
       <c r="X26" t="n">
-        <v>146.8655570465659</v>
+        <v>146.8655570465658</v>
       </c>
       <c r="Y26" t="n">
         <v>169.3684101703096</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.136586121265598</v>
+        <v>6.136586121265594</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.030624957442417</v>
+        <v>2.03062495744236</v>
       </c>
       <c r="U27" t="n">
-        <v>24.31053453275421</v>
+        <v>49.93079833346331</v>
       </c>
       <c r="V27" t="n">
-        <v>27.73176366726199</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.78742632887133</v>
+        <v>53.78742632887128</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>4.39575719133029</v>
       </c>
       <c r="Y27" t="n">
-        <v>184.2259677438041</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.43700444542708</v>
+        <v>22.43700444542702</v>
       </c>
       <c r="T28" t="n">
-        <v>10.8238352887095</v>
+        <v>10.82383528870945</v>
       </c>
       <c r="U28" t="n">
-        <v>75.7391371768491</v>
+        <v>75.73913717684904</v>
       </c>
       <c r="V28" t="n">
-        <v>32.19185793630965</v>
+        <v>32.19185793630959</v>
       </c>
       <c r="W28" t="n">
-        <v>77.39354984119507</v>
+        <v>77.39354984119501</v>
       </c>
       <c r="X28" t="n">
-        <v>9.002298160102271</v>
+        <v>9.002298160102214</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.224115566028161</v>
+        <v>4.224115566028104</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.1700831296931</v>
+        <v>161.170083129693</v>
       </c>
       <c r="C29" t="n">
-        <v>137.2883401330386</v>
+        <v>137.2883401330385</v>
       </c>
       <c r="D29" t="n">
         <v>124.855002394087</v>
       </c>
       <c r="E29" t="n">
-        <v>158.5617548134959</v>
+        <v>158.5617548134958</v>
       </c>
       <c r="F29" t="n">
         <v>190.2820923918732</v>
@@ -2807,10 +2807,10 @@
         <v>205.9102852902861</v>
       </c>
       <c r="H29" t="n">
-        <v>133.9943484033456</v>
+        <v>133.9943484033455</v>
       </c>
       <c r="I29" t="n">
-        <v>27.67892728751266</v>
+        <v>27.6789272875126</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.35531776834645</v>
+        <v>14.35531776834639</v>
       </c>
       <c r="T29" t="n">
-        <v>9.501751719646677</v>
+        <v>9.501751719646625</v>
       </c>
       <c r="U29" t="n">
-        <v>37.23252581057173</v>
+        <v>37.23252581057167</v>
       </c>
       <c r="V29" t="n">
-        <v>107.9626263610118</v>
+        <v>107.9626263610117</v>
       </c>
       <c r="W29" t="n">
         <v>124.9793065776266</v>
       </c>
       <c r="X29" t="n">
-        <v>146.8655570465659</v>
+        <v>146.8655570465658</v>
       </c>
       <c r="Y29" t="n">
         <v>169.3684101703096</v>
@@ -2874,10 +2874,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.6800758778345</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>51.93274503525221</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.136586121265598</v>
+        <v>6.136586121265594</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S30" t="n">
-        <v>12.42662589146919</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.030624957442417</v>
+        <v>2.03062495744236</v>
       </c>
       <c r="U30" t="n">
-        <v>24.31053453275421</v>
+        <v>237.2276917808945</v>
       </c>
       <c r="V30" t="n">
-        <v>27.73176366726199</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.78742632887133</v>
+        <v>53.78742632887128</v>
       </c>
       <c r="X30" t="n">
-        <v>4.395757191330347</v>
+        <v>4.39575719133029</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.46712888588536</v>
+        <v>26.54180443413264</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.43700444542708</v>
+        <v>22.43700444542702</v>
       </c>
       <c r="T31" t="n">
-        <v>10.8238352887095</v>
+        <v>10.82383528870945</v>
       </c>
       <c r="U31" t="n">
-        <v>75.7391371768491</v>
+        <v>75.73913717684904</v>
       </c>
       <c r="V31" t="n">
-        <v>32.19185793630965</v>
+        <v>32.19185793630959</v>
       </c>
       <c r="W31" t="n">
-        <v>77.39354984119507</v>
+        <v>77.39354984119501</v>
       </c>
       <c r="X31" t="n">
-        <v>9.002298160102271</v>
+        <v>9.002298160102214</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.224115566028161</v>
+        <v>4.224115566028104</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>133.9943484033456</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67892728751266</v>
+        <v>27.67892728751265</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>30.54318635857503</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.136586121265598</v>
+        <v>6.136586121265594</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.030624957442417</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U33" t="n">
         <v>24.31053453275421</v>
       </c>
       <c r="V33" t="n">
-        <v>27.73176366726199</v>
+        <v>94.4416128763115</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>53.78742632887133</v>
       </c>
       <c r="X33" t="n">
         <v>4.395757191330347</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>10.46712888588536</v>
       </c>
     </row>
     <row r="34">
@@ -3269,19 +3269,19 @@
         <v>102.1122634693137</v>
       </c>
       <c r="D35" t="n">
-        <v>89.67892573036218</v>
+        <v>89.67892573036215</v>
       </c>
       <c r="E35" t="n">
-        <v>123.3856781497711</v>
+        <v>123.385678149771</v>
       </c>
       <c r="F35" t="n">
-        <v>155.1060157281484</v>
+        <v>155.1060157281483</v>
       </c>
       <c r="G35" t="n">
         <v>170.7342086265613</v>
       </c>
       <c r="H35" t="n">
-        <v>98.81827173962071</v>
+        <v>98.81827173962068</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.056449146846887</v>
+        <v>2.056449146846851</v>
       </c>
       <c r="V35" t="n">
-        <v>72.78654969728692</v>
+        <v>72.78654969728689</v>
       </c>
       <c r="W35" t="n">
-        <v>89.80322991390179</v>
+        <v>89.80322991390176</v>
       </c>
       <c r="X35" t="n">
         <v>111.689480382841</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>51.93274503525221</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,13 +3387,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.136586121265598</v>
+        <v>6.136586121265594</v>
       </c>
       <c r="R36" t="n">
         <v>134.3633376148752</v>
       </c>
       <c r="S36" t="n">
-        <v>108.2041260094777</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>18.61134966514649</v>
+        <v>24.94604060730865</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.56306051312425</v>
+        <v>40.56306051312422</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>42.21747317747023</v>
+        <v>42.2174731774702</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,19 +3506,19 @@
         <v>102.1122634693137</v>
       </c>
       <c r="D38" t="n">
-        <v>89.67892573036218</v>
+        <v>89.67892573036215</v>
       </c>
       <c r="E38" t="n">
-        <v>123.3856781497711</v>
+        <v>123.385678149771</v>
       </c>
       <c r="F38" t="n">
-        <v>155.1060157281484</v>
+        <v>155.1060157281483</v>
       </c>
       <c r="G38" t="n">
         <v>170.7342086265613</v>
       </c>
       <c r="H38" t="n">
-        <v>98.81827173962071</v>
+        <v>98.81827173962068</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,13 +3557,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.056449146846887</v>
+        <v>2.056449146846851</v>
       </c>
       <c r="V38" t="n">
-        <v>72.78654969728692</v>
+        <v>72.78654969728689</v>
       </c>
       <c r="W38" t="n">
-        <v>89.80322991390179</v>
+        <v>89.80322991390176</v>
       </c>
       <c r="X38" t="n">
         <v>111.689480382841</v>
@@ -3582,16 +3582,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3624,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.136586121265598</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>49.6631102289587</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>54.97548103238185</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>18.61134966514649</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.56306051312425</v>
+        <v>40.56306051312422</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>42.21747317747023</v>
+        <v>42.2174731774702</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,10 +3743,10 @@
         <v>109.6094128455259</v>
       </c>
       <c r="D41" t="n">
-        <v>97.17607510657436</v>
+        <v>97.17607510657439</v>
       </c>
       <c r="E41" t="n">
-        <v>130.8828275259832</v>
+        <v>130.8828275259833</v>
       </c>
       <c r="F41" t="n">
         <v>162.6031651043606</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.553598523059058</v>
+        <v>9.553598523059094</v>
       </c>
       <c r="V41" t="n">
-        <v>80.28369907349909</v>
+        <v>80.28369907349912</v>
       </c>
       <c r="W41" t="n">
-        <v>97.30037929011397</v>
+        <v>97.30037929011399</v>
       </c>
       <c r="X41" t="n">
         <v>119.1866297590532</v>
@@ -3819,13 +3819,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>29.57227106628814</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3837,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>107.1657389737211</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>51.93274503525221</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.136586121265598</v>
+        <v>6.136586121265594</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3876,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0.05283637974932276</v>
+        <v>107.3721142456802</v>
       </c>
       <c r="W42" t="n">
-        <v>26.10849904135867</v>
+        <v>26.1084990413587</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.06020988933643</v>
+        <v>48.06020988933646</v>
       </c>
       <c r="V43" t="n">
-        <v>4.512930648796981</v>
+        <v>4.51293064879701</v>
       </c>
       <c r="W43" t="n">
-        <v>49.7146225536824</v>
+        <v>49.71462255368243</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>109.6094128455259</v>
       </c>
       <c r="D44" t="n">
-        <v>97.17607510657436</v>
+        <v>97.17607510657439</v>
       </c>
       <c r="E44" t="n">
-        <v>130.8828275259832</v>
+        <v>130.8828275259833</v>
       </c>
       <c r="F44" t="n">
         <v>162.6031651043606</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.553598523059058</v>
+        <v>9.553598523059094</v>
       </c>
       <c r="V44" t="n">
-        <v>80.28369907349909</v>
+        <v>80.28369907349912</v>
       </c>
       <c r="W44" t="n">
-        <v>97.30037929011397</v>
+        <v>97.30037929011399</v>
       </c>
       <c r="X44" t="n">
         <v>119.1866297590532</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7388631915159</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>51.93274503525221</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.136586121265598</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4107,22 +4107,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9477822055827</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>90.17269389101411</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>26.10849904135867</v>
+        <v>26.1084990413587</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>68.55149786908906</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.06020988933643</v>
+        <v>48.06020988933646</v>
       </c>
       <c r="V46" t="n">
-        <v>4.512930648796981</v>
+        <v>4.51293064879701</v>
       </c>
       <c r="W46" t="n">
-        <v>49.7146225536824</v>
+        <v>49.71462255368243</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179.7264763208807</v>
+        <v>303.0085957891684</v>
       </c>
       <c r="C11" t="n">
-        <v>179.7264763208807</v>
+        <v>303.0085957891684</v>
       </c>
       <c r="D11" t="n">
-        <v>179.7264763208807</v>
+        <v>303.0085957891684</v>
       </c>
       <c r="E11" t="n">
-        <v>179.7264763208807</v>
+        <v>303.0085957891684</v>
       </c>
       <c r="F11" t="n">
-        <v>179.7264763208807</v>
+        <v>303.0085957891684</v>
       </c>
       <c r="G11" t="n">
-        <v>179.7264763208807</v>
+        <v>179.7264763208811</v>
       </c>
       <c r="H11" t="n">
-        <v>56.4443568525935</v>
+        <v>56.44435685259373</v>
       </c>
       <c r="I11" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="J11" t="n">
-        <v>127.0904160344401</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="K11" t="n">
-        <v>127.0904160344401</v>
+        <v>18.06556317397254</v>
       </c>
       <c r="L11" t="n">
-        <v>175.4876665214275</v>
+        <v>66.46281366095994</v>
       </c>
       <c r="M11" t="n">
-        <v>258.2148925245446</v>
+        <v>149.1900396640769</v>
       </c>
       <c r="N11" t="n">
-        <v>335.4382955160495</v>
+        <v>226.4134426555819</v>
       </c>
       <c r="O11" t="n">
-        <v>371.4488064152299</v>
+        <v>262.4239535547622</v>
       </c>
       <c r="P11" t="n">
-        <v>383.2527588456298</v>
+        <v>383.2527588456306</v>
       </c>
       <c r="Q11" t="n">
-        <v>488.0239675444172</v>
+        <v>488.0239675444178</v>
       </c>
       <c r="R11" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="S11" t="n">
-        <v>454.9749715372133</v>
+        <v>454.9749715372137</v>
       </c>
       <c r="T11" t="n">
-        <v>426.655341948393</v>
+        <v>426.6553419483931</v>
       </c>
       <c r="U11" t="n">
-        <v>370.3248294394463</v>
+        <v>426.6553419483931</v>
       </c>
       <c r="V11" t="n">
-        <v>303.0085957891679</v>
+        <v>303.3732224801058</v>
       </c>
       <c r="W11" t="n">
-        <v>303.0085957891679</v>
+        <v>303.3732224801058</v>
       </c>
       <c r="X11" t="n">
-        <v>179.7264763208807</v>
+        <v>303.3732224801058</v>
       </c>
       <c r="Y11" t="n">
-        <v>179.7264763208807</v>
+        <v>303.3732224801058</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.22126207931483</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="C12" t="n">
-        <v>62.22126207931483</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="D12" t="n">
-        <v>62.22126207931483</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="E12" t="n">
-        <v>62.22126207931483</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="F12" t="n">
-        <v>62.22126207931483</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="G12" t="n">
-        <v>62.22126207931483</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="H12" t="n">
-        <v>62.22126207931483</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="I12" t="n">
-        <v>62.22126207931483</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="J12" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="K12" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="L12" t="n">
-        <v>128.3309857893938</v>
+        <v>41.00029403282535</v>
       </c>
       <c r="M12" t="n">
-        <v>249.159791080262</v>
+        <v>161.8290993236938</v>
       </c>
       <c r="N12" t="n">
-        <v>282.6579046145618</v>
+        <v>282.6579046145621</v>
       </c>
       <c r="O12" t="n">
-        <v>403.4867099054301</v>
+        <v>403.4867099054305</v>
       </c>
       <c r="P12" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="Q12" t="n">
-        <v>481.9986212547551</v>
+        <v>481.9986212547556</v>
       </c>
       <c r="R12" t="n">
-        <v>358.7165017864679</v>
+        <v>358.7165017864683</v>
       </c>
       <c r="S12" t="n">
-        <v>298.5155297593737</v>
+        <v>358.7165017864683</v>
       </c>
       <c r="T12" t="n">
-        <v>277.7424928596486</v>
+        <v>337.943464886743</v>
       </c>
       <c r="U12" t="n">
-        <v>234.4644967929419</v>
+        <v>214.6613454184556</v>
       </c>
       <c r="V12" t="n">
-        <v>187.7307137216819</v>
+        <v>135.273395504256</v>
       </c>
       <c r="W12" t="n">
-        <v>114.6780794770791</v>
+        <v>62.22076125965299</v>
       </c>
       <c r="X12" t="n">
-        <v>91.51602011888129</v>
+        <v>39.05870190145502</v>
       </c>
       <c r="Y12" t="n">
-        <v>62.22126207931483</v>
+        <v>9.763943861888356</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.763943861888347</v>
+        <v>26.36184332167602</v>
       </c>
       <c r="C13" t="n">
-        <v>9.763943861888347</v>
+        <v>54.00788507752947</v>
       </c>
       <c r="D13" t="n">
-        <v>58.47177103179101</v>
+        <v>102.7157122474319</v>
       </c>
       <c r="E13" t="n">
-        <v>110.6510421497945</v>
+        <v>102.7157122474319</v>
       </c>
       <c r="F13" t="n">
-        <v>165.5520796716386</v>
+        <v>157.6167497692758</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5520796716386</v>
+        <v>183.04639867541</v>
       </c>
       <c r="H13" t="n">
-        <v>165.5520796716386</v>
+        <v>183.04639867541</v>
       </c>
       <c r="I13" t="n">
-        <v>165.5520796716386</v>
+        <v>183.04639867541</v>
       </c>
       <c r="J13" t="n">
-        <v>239.2904163124323</v>
+        <v>183.04639867541</v>
       </c>
       <c r="K13" t="n">
-        <v>316.9979918744484</v>
+        <v>183.04639867541</v>
       </c>
       <c r="L13" t="n">
-        <v>316.9979918744484</v>
+        <v>183.04639867541</v>
       </c>
       <c r="M13" t="n">
-        <v>316.9979918744484</v>
+        <v>183.04639867541</v>
       </c>
       <c r="N13" t="n">
-        <v>316.9979918744484</v>
+        <v>196.1691865835819</v>
       </c>
       <c r="O13" t="n">
-        <v>316.9979918744484</v>
+        <v>196.1691865835819</v>
       </c>
       <c r="P13" t="n">
-        <v>316.9979918744484</v>
+        <v>316.9979918744503</v>
       </c>
       <c r="Q13" t="n">
-        <v>383.8908443538472</v>
+        <v>383.8908443538489</v>
       </c>
       <c r="R13" t="n">
-        <v>374.9705796473619</v>
+        <v>374.9705796473634</v>
       </c>
       <c r="S13" t="n">
-        <v>333.585038214319</v>
+        <v>333.5850382143203</v>
       </c>
       <c r="T13" t="n">
-        <v>303.9299706769504</v>
+        <v>303.9299706769514</v>
       </c>
       <c r="U13" t="n">
-        <v>208.70389113136</v>
+        <v>208.7038911313608</v>
       </c>
       <c r="V13" t="n">
-        <v>157.4649623337892</v>
+        <v>157.4649623337898</v>
       </c>
       <c r="W13" t="n">
-        <v>60.56775888481897</v>
+        <v>60.56775888481938</v>
       </c>
       <c r="X13" t="n">
-        <v>32.752627840993</v>
+        <v>32.75262784099321</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>370.3248294394465</v>
+        <v>256.328182798463</v>
       </c>
       <c r="C14" t="n">
-        <v>370.3248294394465</v>
+        <v>256.328182798463</v>
       </c>
       <c r="D14" t="n">
-        <v>370.3248294394465</v>
+        <v>133.0460633301757</v>
       </c>
       <c r="E14" t="n">
-        <v>370.3248294394465</v>
+        <v>133.0460633301757</v>
       </c>
       <c r="F14" t="n">
-        <v>247.0427099711592</v>
+        <v>133.0460633301757</v>
       </c>
       <c r="G14" t="n">
-        <v>179.7264763208807</v>
+        <v>133.0460633301757</v>
       </c>
       <c r="H14" t="n">
-        <v>56.44435685259348</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="I14" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="J14" t="n">
-        <v>127.0904160344401</v>
+        <v>127.0904160344399</v>
       </c>
       <c r="K14" t="n">
-        <v>205.5639978758762</v>
+        <v>139.0675940148409</v>
       </c>
       <c r="L14" t="n">
-        <v>253.9612483628636</v>
+        <v>187.4648445018283</v>
       </c>
       <c r="M14" t="n">
-        <v>374.7900536537319</v>
+        <v>270.1920705049453</v>
       </c>
       <c r="N14" t="n">
-        <v>452.0134566452369</v>
+        <v>347.4154734964503</v>
       </c>
       <c r="O14" t="n">
-        <v>488.0239675444172</v>
+        <v>383.4259843956306</v>
       </c>
       <c r="P14" t="n">
-        <v>488.0239675444172</v>
+        <v>383.4259843956306</v>
       </c>
       <c r="Q14" t="n">
-        <v>488.0239675444172</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="R14" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="S14" t="n">
-        <v>454.9749715372133</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="T14" t="n">
-        <v>426.655341948393</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="U14" t="n">
-        <v>370.3248294394465</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="V14" t="n">
-        <v>370.3248294394465</v>
+        <v>364.9150736261305</v>
       </c>
       <c r="W14" t="n">
-        <v>370.3248294394465</v>
+        <v>364.9150736261305</v>
       </c>
       <c r="X14" t="n">
-        <v>370.3248294394465</v>
+        <v>364.9150736261305</v>
       </c>
       <c r="Y14" t="n">
-        <v>370.3248294394465</v>
+        <v>364.9150736261305</v>
       </c>
     </row>
     <row r="15">
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>185.503381547602</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="C15" t="n">
         <v>62.22126207931483</v>
@@ -5355,52 +5355,52 @@
         <v>62.22126207931483</v>
       </c>
       <c r="J15" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="K15" t="n">
-        <v>9.763943861888347</v>
+        <v>48.64509028167981</v>
       </c>
       <c r="L15" t="n">
-        <v>128.3309857893938</v>
+        <v>125.7107772218126</v>
       </c>
       <c r="M15" t="n">
-        <v>249.159791080262</v>
+        <v>246.539582512681</v>
       </c>
       <c r="N15" t="n">
-        <v>282.6579046145618</v>
+        <v>367.3683878035494</v>
       </c>
       <c r="O15" t="n">
-        <v>403.4867099054301</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="P15" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="Q15" t="n">
-        <v>481.9986212547551</v>
+        <v>481.9986212547556</v>
       </c>
       <c r="R15" t="n">
-        <v>481.9986212547551</v>
+        <v>358.7165017864683</v>
       </c>
       <c r="S15" t="n">
-        <v>481.9986212547551</v>
+        <v>298.5155297593749</v>
       </c>
       <c r="T15" t="n">
-        <v>461.22558435503</v>
+        <v>277.7424928596496</v>
       </c>
       <c r="U15" t="n">
-        <v>357.7466162612291</v>
+        <v>234.4644967929427</v>
       </c>
       <c r="V15" t="n">
-        <v>311.0128331899691</v>
+        <v>187.7307137216825</v>
       </c>
       <c r="W15" t="n">
-        <v>237.9601989453662</v>
+        <v>114.6780794770795</v>
       </c>
       <c r="X15" t="n">
-        <v>214.7981395871685</v>
+        <v>91.5160201188815</v>
       </c>
       <c r="Y15" t="n">
-        <v>185.503381547602</v>
+        <v>62.22126207931483</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="C16" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="D16" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="E16" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="F16" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="G16" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="H16" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="I16" t="n">
-        <v>39.14145792750031</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="J16" t="n">
-        <v>112.879794568294</v>
+        <v>83.50228050268188</v>
       </c>
       <c r="K16" t="n">
-        <v>112.879794568294</v>
+        <v>83.50228050268188</v>
       </c>
       <c r="L16" t="n">
-        <v>112.879794568294</v>
+        <v>204.3310857935503</v>
       </c>
       <c r="M16" t="n">
-        <v>233.7085998591623</v>
+        <v>204.3310857935503</v>
       </c>
       <c r="N16" t="n">
-        <v>354.5374051500306</v>
+        <v>263.0620390629805</v>
       </c>
       <c r="O16" t="n">
-        <v>383.8908443538472</v>
+        <v>263.0620390629805</v>
       </c>
       <c r="P16" t="n">
-        <v>383.8908443538472</v>
+        <v>383.8908443538489</v>
       </c>
       <c r="Q16" t="n">
-        <v>383.8908443538472</v>
+        <v>383.8908443538489</v>
       </c>
       <c r="R16" t="n">
-        <v>374.9705796473619</v>
+        <v>374.9705796473634</v>
       </c>
       <c r="S16" t="n">
-        <v>333.585038214319</v>
+        <v>333.5850382143203</v>
       </c>
       <c r="T16" t="n">
-        <v>303.9299706769504</v>
+        <v>303.9299706769514</v>
       </c>
       <c r="U16" t="n">
-        <v>208.70389113136</v>
+        <v>208.7038911313608</v>
       </c>
       <c r="V16" t="n">
-        <v>157.4649623337892</v>
+        <v>157.4649623337898</v>
       </c>
       <c r="W16" t="n">
-        <v>60.56775888481897</v>
+        <v>60.56775888481938</v>
       </c>
       <c r="X16" t="n">
-        <v>32.752627840993</v>
+        <v>32.75262784099321</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315.9417875589143</v>
+        <v>315.9417875589145</v>
       </c>
       <c r="C17" t="n">
-        <v>286.3198544558568</v>
+        <v>286.3198544558571</v>
       </c>
       <c r="D17" t="n">
-        <v>269.2568483618414</v>
+        <v>269.2568483618417</v>
       </c>
       <c r="E17" t="n">
-        <v>218.1466176017564</v>
+        <v>218.1466176017568</v>
       </c>
       <c r="F17" t="n">
-        <v>134.9956418130075</v>
+        <v>134.9956418130078</v>
       </c>
       <c r="G17" t="n">
-        <v>36.05861259151845</v>
+        <v>36.05861259151848</v>
       </c>
       <c r="H17" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="I17" t="n">
-        <v>89.24480594465246</v>
+        <v>76.33973727374099</v>
       </c>
       <c r="J17" t="n">
-        <v>89.24480594465246</v>
+        <v>76.33973727374099</v>
       </c>
       <c r="K17" t="n">
-        <v>89.24480594465246</v>
+        <v>76.33973727374099</v>
       </c>
       <c r="L17" t="n">
-        <v>137.6420564316398</v>
+        <v>124.7369877607284</v>
       </c>
       <c r="M17" t="n">
-        <v>220.3692824347569</v>
+        <v>207.4642137638454</v>
       </c>
       <c r="N17" t="n">
-        <v>297.5926854262618</v>
+        <v>284.6876167553504</v>
       </c>
       <c r="O17" t="n">
-        <v>333.6031963254421</v>
+        <v>320.6981276545307</v>
       </c>
       <c r="P17" t="n">
-        <v>333.6031963254421</v>
+        <v>320.6981276545307</v>
       </c>
       <c r="Q17" t="n">
-        <v>333.6031963254421</v>
+        <v>320.6981276545307</v>
       </c>
       <c r="R17" t="n">
-        <v>390.7209271994659</v>
+        <v>320.6981276545307</v>
       </c>
       <c r="S17" t="n">
-        <v>390.7209271994659</v>
+        <v>320.6981276545307</v>
       </c>
       <c r="T17" t="n">
-        <v>488.1971930944173</v>
+        <v>418.1743935494821</v>
       </c>
       <c r="U17" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="V17" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="W17" t="n">
-        <v>471.0086272190489</v>
+        <v>471.0086272190493</v>
       </c>
       <c r="X17" t="n">
-        <v>431.7127376376811</v>
+        <v>431.7127376376816</v>
       </c>
       <c r="Y17" t="n">
-        <v>369.6866933858651</v>
+        <v>369.6866933858656</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>293.7516027331789</v>
+        <v>256.328182798463</v>
       </c>
       <c r="C18" t="n">
-        <v>293.7516027331789</v>
+        <v>133.0460633301757</v>
       </c>
       <c r="D18" t="n">
-        <v>293.7516027331789</v>
+        <v>133.0460633301757</v>
       </c>
       <c r="E18" t="n">
-        <v>293.7516027331789</v>
+        <v>133.0460633301757</v>
       </c>
       <c r="F18" t="n">
-        <v>293.7516027331789</v>
+        <v>133.0460633301757</v>
       </c>
       <c r="G18" t="n">
-        <v>293.7516027331789</v>
+        <v>133.0460633301757</v>
       </c>
       <c r="H18" t="n">
-        <v>170.4694832648917</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="I18" t="n">
-        <v>62.22126207931483</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="J18" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="K18" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="L18" t="n">
-        <v>128.3309857893938</v>
+        <v>125.7107772218126</v>
       </c>
       <c r="M18" t="n">
-        <v>161.8290993236935</v>
+        <v>246.539582512681</v>
       </c>
       <c r="N18" t="n">
-        <v>282.6579046145618</v>
+        <v>367.3683878035494</v>
       </c>
       <c r="O18" t="n">
-        <v>403.4867099054301</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="P18" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="Q18" t="n">
-        <v>481.9986212547551</v>
+        <v>481.9986212547556</v>
       </c>
       <c r="R18" t="n">
-        <v>358.7165017864679</v>
+        <v>358.7165017864683</v>
       </c>
       <c r="S18" t="n">
-        <v>358.7165017864679</v>
+        <v>358.7165017864683</v>
       </c>
       <c r="T18" t="n">
-        <v>358.7165017864679</v>
+        <v>358.7165017864683</v>
       </c>
       <c r="U18" t="n">
-        <v>358.7165017864679</v>
+        <v>358.7165017864683</v>
       </c>
       <c r="V18" t="n">
-        <v>358.7165017864679</v>
+        <v>358.7165017864683</v>
       </c>
       <c r="W18" t="n">
-        <v>358.7165017864679</v>
+        <v>256.328182798463</v>
       </c>
       <c r="X18" t="n">
-        <v>293.7516027331789</v>
+        <v>256.328182798463</v>
       </c>
       <c r="Y18" t="n">
-        <v>293.7516027331789</v>
+        <v>256.328182798463</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="C19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="D19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="E19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="F19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="G19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="H19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="I19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="J19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="K19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="L19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="M19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="N19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="O19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="P19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="R19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="S19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="T19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="U19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="V19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="W19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="X19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>315.9417875589145</v>
+        <v>315.9417875589147</v>
       </c>
       <c r="C20" t="n">
         <v>286.3198544558574</v>
@@ -5741,61 +5741,61 @@
         <v>134.995641813008</v>
       </c>
       <c r="G20" t="n">
-        <v>36.05861259151839</v>
+        <v>36.05861259151845</v>
       </c>
       <c r="H20" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="I20" t="n">
-        <v>9.763943861888347</v>
+        <v>76.33973727374099</v>
       </c>
       <c r="J20" t="n">
-        <v>53.69130131193745</v>
+        <v>76.33973727374099</v>
       </c>
       <c r="K20" t="n">
-        <v>53.69130131193745</v>
+        <v>76.33973727374099</v>
       </c>
       <c r="L20" t="n">
-        <v>102.0885517989248</v>
+        <v>124.7369877607284</v>
       </c>
       <c r="M20" t="n">
-        <v>184.8157778020419</v>
+        <v>207.4642137638454</v>
       </c>
       <c r="N20" t="n">
-        <v>262.0391807935468</v>
+        <v>284.6876167553504</v>
       </c>
       <c r="O20" t="n">
-        <v>298.0496916927272</v>
+        <v>320.6981276545307</v>
       </c>
       <c r="P20" t="n">
-        <v>298.0496916927272</v>
+        <v>320.6981276545307</v>
       </c>
       <c r="Q20" t="n">
-        <v>298.0496916927272</v>
+        <v>320.6981276545307</v>
       </c>
       <c r="R20" t="n">
-        <v>298.0496916927272</v>
+        <v>320.6981276545307</v>
       </c>
       <c r="S20" t="n">
-        <v>390.7209271994658</v>
+        <v>320.6981276545307</v>
       </c>
       <c r="T20" t="n">
-        <v>488.1971930944173</v>
+        <v>418.1743935494821</v>
       </c>
       <c r="U20" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="V20" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="W20" t="n">
-        <v>471.0086272190489</v>
+        <v>471.0086272190493</v>
       </c>
       <c r="X20" t="n">
-        <v>431.7127376376812</v>
+        <v>431.7127376376815</v>
       </c>
       <c r="Y20" t="n">
-        <v>369.6866933858652</v>
+        <v>369.6866933858655</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>358.7165017864679</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="C21" t="n">
-        <v>358.7165017864679</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="D21" t="n">
-        <v>358.7165017864679</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="E21" t="n">
-        <v>235.4343823181807</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="F21" t="n">
-        <v>112.1522628498935</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="G21" t="n">
-        <v>112.1522628498935</v>
+        <v>62.22126207931483</v>
       </c>
       <c r="H21" t="n">
         <v>62.22126207931483</v>
@@ -5829,52 +5829,52 @@
         <v>62.22126207931483</v>
       </c>
       <c r="J21" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="K21" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="L21" t="n">
-        <v>128.3309857893938</v>
+        <v>41.00029403282535</v>
       </c>
       <c r="M21" t="n">
-        <v>246.5395825126808</v>
+        <v>161.8290993236938</v>
       </c>
       <c r="N21" t="n">
-        <v>367.3683878035491</v>
+        <v>282.6579046145621</v>
       </c>
       <c r="O21" t="n">
-        <v>488.1971930944173</v>
+        <v>403.4867099054305</v>
       </c>
       <c r="P21" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="Q21" t="n">
-        <v>481.9986212547551</v>
+        <v>481.9986212547556</v>
       </c>
       <c r="R21" t="n">
-        <v>358.7165017864679</v>
+        <v>432.0676204841768</v>
       </c>
       <c r="S21" t="n">
-        <v>358.7165017864679</v>
+        <v>432.0676204841768</v>
       </c>
       <c r="T21" t="n">
-        <v>358.7165017864679</v>
+        <v>432.0676204841768</v>
       </c>
       <c r="U21" t="n">
-        <v>358.7165017864679</v>
+        <v>432.0676204841768</v>
       </c>
       <c r="V21" t="n">
-        <v>358.7165017864679</v>
+        <v>308.7855010158895</v>
       </c>
       <c r="W21" t="n">
-        <v>358.7165017864679</v>
+        <v>308.7855010158895</v>
       </c>
       <c r="X21" t="n">
-        <v>358.7165017864679</v>
+        <v>185.5033815476022</v>
       </c>
       <c r="Y21" t="n">
-        <v>358.7165017864679</v>
+        <v>62.22126207931483</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="C22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="D22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="E22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="F22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="G22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="H22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="I22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="J22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="K22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="L22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="M22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="N22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="O22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="P22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="R22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="S22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="T22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="U22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="V22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="W22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="X22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>315.9417875589141</v>
+        <v>315.9417875589145</v>
       </c>
       <c r="C23" t="n">
-        <v>286.319854455857</v>
+        <v>286.3198544558571</v>
       </c>
       <c r="D23" t="n">
-        <v>269.2568483618415</v>
+        <v>269.2568483618417</v>
       </c>
       <c r="E23" t="n">
-        <v>218.1466176017566</v>
+        <v>218.1466176017567</v>
       </c>
       <c r="F23" t="n">
         <v>134.9956418130078</v>
       </c>
       <c r="G23" t="n">
-        <v>36.05861259151839</v>
+        <v>36.05861259151848</v>
       </c>
       <c r="H23" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="I23" t="n">
-        <v>89.24480594465251</v>
+        <v>89.24480594465247</v>
       </c>
       <c r="J23" t="n">
-        <v>89.24480594465251</v>
+        <v>89.24480594465247</v>
       </c>
       <c r="K23" t="n">
-        <v>89.24480594465251</v>
+        <v>89.24480594465247</v>
       </c>
       <c r="L23" t="n">
         <v>137.6420564316399</v>
@@ -6005,34 +6005,34 @@
         <v>333.6031963254422</v>
       </c>
       <c r="P23" t="n">
-        <v>333.6031963254422</v>
+        <v>395.525957587679</v>
       </c>
       <c r="Q23" t="n">
-        <v>333.6031963254422</v>
+        <v>395.525957587679</v>
       </c>
       <c r="R23" t="n">
-        <v>395.5259575876786</v>
+        <v>395.525957587679</v>
       </c>
       <c r="S23" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944177</v>
       </c>
       <c r="T23" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944177</v>
       </c>
       <c r="U23" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944177</v>
       </c>
       <c r="V23" t="n">
-        <v>488.1971930944171</v>
+        <v>488.1971930944177</v>
       </c>
       <c r="W23" t="n">
-        <v>471.0086272190488</v>
+        <v>471.0086272190491</v>
       </c>
       <c r="X23" t="n">
-        <v>431.7127376376809</v>
+        <v>431.7127376376813</v>
       </c>
       <c r="Y23" t="n">
-        <v>369.6866933858649</v>
+        <v>369.6866933858653</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>481.9986212547551</v>
+        <v>112.1522628498936</v>
       </c>
       <c r="C24" t="n">
-        <v>481.9986212547551</v>
+        <v>112.1522628498936</v>
       </c>
       <c r="D24" t="n">
-        <v>358.7165017864679</v>
+        <v>112.1522628498936</v>
       </c>
       <c r="E24" t="n">
-        <v>235.4343823181807</v>
+        <v>112.1522628498936</v>
       </c>
       <c r="F24" t="n">
-        <v>170.4694832648917</v>
+        <v>112.1522628498936</v>
       </c>
       <c r="G24" t="n">
-        <v>170.4694832648917</v>
+        <v>112.1522628498936</v>
       </c>
       <c r="H24" t="n">
-        <v>170.4694832648917</v>
+        <v>112.1522628498936</v>
       </c>
       <c r="I24" t="n">
         <v>62.22126207931483</v>
       </c>
       <c r="J24" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="K24" t="n">
-        <v>9.763943861888347</v>
+        <v>43.26205739618833</v>
       </c>
       <c r="L24" t="n">
-        <v>128.3309857893938</v>
+        <v>161.8290993236938</v>
       </c>
       <c r="M24" t="n">
-        <v>249.159791080262</v>
+        <v>282.6579046145621</v>
       </c>
       <c r="N24" t="n">
-        <v>367.3683878035491</v>
+        <v>403.4867099054305</v>
       </c>
       <c r="O24" t="n">
-        <v>488.1971930944173</v>
+        <v>403.4867099054305</v>
       </c>
       <c r="P24" t="n">
-        <v>488.1971930944173</v>
+        <v>488.1971930944178</v>
       </c>
       <c r="Q24" t="n">
-        <v>481.9986212547551</v>
+        <v>481.9986212547556</v>
       </c>
       <c r="R24" t="n">
-        <v>481.9986212547551</v>
+        <v>481.9986212547556</v>
       </c>
       <c r="S24" t="n">
-        <v>481.9986212547551</v>
+        <v>481.9986212547556</v>
       </c>
       <c r="T24" t="n">
-        <v>481.9986212547551</v>
+        <v>481.9986212547556</v>
       </c>
       <c r="U24" t="n">
-        <v>481.9986212547551</v>
+        <v>358.7165017864683</v>
       </c>
       <c r="V24" t="n">
-        <v>481.9986212547551</v>
+        <v>358.7165017864683</v>
       </c>
       <c r="W24" t="n">
-        <v>481.9986212547551</v>
+        <v>235.4343823181809</v>
       </c>
       <c r="X24" t="n">
-        <v>481.9986212547551</v>
+        <v>235.4343823181809</v>
       </c>
       <c r="Y24" t="n">
-        <v>481.9986212547551</v>
+        <v>235.4343823181809</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="C25" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="D25" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="E25" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="F25" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="G25" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="H25" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="I25" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="J25" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="K25" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="L25" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="M25" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="N25" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="O25" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="P25" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="R25" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="S25" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="T25" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="U25" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="V25" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="W25" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="X25" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.763943861888347</v>
+        <v>9.763943861888356</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.530470300263</v>
+        <v>1024.530470300262</v>
       </c>
       <c r="C26" t="n">
-        <v>885.8553792567893</v>
+        <v>885.8553792567885</v>
       </c>
       <c r="D26" t="n">
-        <v>759.739215222358</v>
+        <v>759.7392152223574</v>
       </c>
       <c r="E26" t="n">
-        <v>599.575826521857</v>
+        <v>599.5758265218565</v>
       </c>
       <c r="F26" t="n">
-        <v>407.3716927926921</v>
+        <v>407.3716927926914</v>
       </c>
       <c r="G26" t="n">
-        <v>199.3815056307869</v>
+        <v>199.3815056307866</v>
       </c>
       <c r="H26" t="n">
-        <v>64.03367896074072</v>
+        <v>64.03367896074064</v>
       </c>
       <c r="I26" t="n">
-        <v>36.07516654911176</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="J26" t="n">
-        <v>171.7509734792161</v>
+        <v>171.7509734792162</v>
       </c>
       <c r="K26" t="n">
         <v>377.2303396281796</v>
       </c>
       <c r="L26" t="n">
-        <v>636.4155757908259</v>
+        <v>636.415575790826</v>
       </c>
       <c r="M26" t="n">
-        <v>929.9307874696017</v>
+        <v>929.9307874696019</v>
       </c>
       <c r="N26" t="n">
         <v>1217.942176136766</v>
@@ -6257,19 +6257,19 @@
         <v>1779.660277467716</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.051665537845</v>
+        <v>1742.051665537844</v>
       </c>
       <c r="V26" t="n">
         <v>1632.998507597429</v>
       </c>
       <c r="W26" t="n">
-        <v>1506.756783781645</v>
+        <v>1506.756783781644</v>
       </c>
       <c r="X26" t="n">
-        <v>1358.407736259861</v>
+        <v>1358.40773625986</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.328534067629</v>
+        <v>1187.328534067628</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>144.3233877346886</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="C27" t="n">
-        <v>144.3233877346886</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="D27" t="n">
-        <v>144.3233877346886</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="E27" t="n">
-        <v>144.3233877346886</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="F27" t="n">
-        <v>144.3233877346886</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="G27" t="n">
-        <v>144.3233877346886</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="H27" t="n">
-        <v>144.3233877346886</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="I27" t="n">
-        <v>36.07516654911176</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="J27" t="n">
-        <v>36.07516654911176</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="K27" t="n">
         <v>74.95631296890321</v>
@@ -6327,28 +6327,28 @@
         <v>794.5886092341632</v>
       </c>
       <c r="R27" t="n">
-        <v>658.8680661888347</v>
+        <v>794.5886092341632</v>
       </c>
       <c r="S27" t="n">
-        <v>658.8680661888347</v>
+        <v>794.5886092341632</v>
       </c>
       <c r="T27" t="n">
-        <v>656.8169298681859</v>
+        <v>792.5374729135143</v>
       </c>
       <c r="U27" t="n">
-        <v>632.2608343805554</v>
+        <v>742.1023230817332</v>
       </c>
       <c r="V27" t="n">
-        <v>604.2489518883715</v>
+        <v>499.0226049853673</v>
       </c>
       <c r="W27" t="n">
-        <v>549.9182182228449</v>
+        <v>444.6918713198407</v>
       </c>
       <c r="X27" t="n">
-        <v>330.4102238395412</v>
+        <v>440.2517125407192</v>
       </c>
       <c r="Y27" t="n">
-        <v>144.3233877346886</v>
+        <v>214.6110194760468</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.07516654911176</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="C28" t="n">
-        <v>36.07516654911176</v>
+        <v>82.07054306251803</v>
       </c>
       <c r="D28" t="n">
-        <v>36.07516654911176</v>
+        <v>82.07054306251803</v>
       </c>
       <c r="E28" t="n">
-        <v>36.07516654911176</v>
+        <v>152.5991489380742</v>
       </c>
       <c r="F28" t="n">
-        <v>36.07516654911176</v>
+        <v>152.5991489380742</v>
       </c>
       <c r="G28" t="n">
-        <v>36.07516654911176</v>
+        <v>152.5991489380742</v>
       </c>
       <c r="H28" t="n">
-        <v>36.07516654911176</v>
+        <v>152.5991489380742</v>
       </c>
       <c r="I28" t="n">
-        <v>36.07516654911176</v>
+        <v>152.5991489380742</v>
       </c>
       <c r="J28" t="n">
-        <v>36.07516654911176</v>
+        <v>244.6868203364206</v>
       </c>
       <c r="K28" t="n">
-        <v>36.07516654911176</v>
+        <v>244.6868203364206</v>
       </c>
       <c r="L28" t="n">
-        <v>36.07516654911176</v>
+        <v>244.6868203364206</v>
       </c>
       <c r="M28" t="n">
-        <v>36.07516654911176</v>
+        <v>244.6868203364206</v>
       </c>
       <c r="N28" t="n">
-        <v>36.07516654911176</v>
+        <v>244.6868203364206</v>
       </c>
       <c r="O28" t="n">
-        <v>36.07516654911176</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="P28" t="n">
-        <v>189.5456644703745</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="Q28" t="n">
-        <v>260.6219149623256</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="R28" t="n">
-        <v>270.228498281052</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="S28" t="n">
-        <v>247.5648574270853</v>
+        <v>247.5648574270849</v>
       </c>
       <c r="T28" t="n">
-        <v>236.6316904687928</v>
+        <v>236.6316904687925</v>
       </c>
       <c r="U28" t="n">
-        <v>160.1275115022786</v>
+        <v>160.1275115022783</v>
       </c>
       <c r="V28" t="n">
-        <v>127.610483283784</v>
+        <v>127.6104832837838</v>
       </c>
       <c r="W28" t="n">
-        <v>49.43518041388998</v>
+        <v>49.43518041388985</v>
       </c>
       <c r="X28" t="n">
-        <v>40.34194994914021</v>
+        <v>40.34194994914014</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.07516654911176</v>
+        <v>36.07516654911175</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1024.530470300262</v>
+        <v>1024.530470300263</v>
       </c>
       <c r="C29" t="n">
-        <v>885.8553792567886</v>
+        <v>885.8553792567891</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7392152223573</v>
+        <v>759.7392152223578</v>
       </c>
       <c r="E29" t="n">
-        <v>599.5758265218564</v>
+        <v>599.5758265218569</v>
       </c>
       <c r="F29" t="n">
-        <v>407.3716927926914</v>
+        <v>407.371692792692</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3815056307863</v>
+        <v>199.3815056307869</v>
       </c>
       <c r="H29" t="n">
-        <v>64.0336789607407</v>
+        <v>64.03367896074087</v>
       </c>
       <c r="I29" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="J29" t="n">
-        <v>171.750973479216</v>
+        <v>171.7509734792161</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2303396281795</v>
+        <v>377.2303396281796</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4155757908258</v>
+        <v>636.4155757908254</v>
       </c>
       <c r="M29" t="n">
-        <v>929.9307874696017</v>
+        <v>929.9307874696013</v>
       </c>
       <c r="N29" t="n">
-        <v>1217.942176136766</v>
+        <v>1217.942176136765</v>
       </c>
       <c r="O29" t="n">
-        <v>1464.740672711605</v>
+        <v>1464.740672711604</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.115223691695</v>
+        <v>1662.115223691694</v>
       </c>
       <c r="Q29" t="n">
         <v>1785.235767148034</v>
@@ -6488,7 +6488,7 @@
         <v>1803.758327455587</v>
       </c>
       <c r="S29" t="n">
-        <v>1789.25800647746</v>
+        <v>1789.258006477459</v>
       </c>
       <c r="T29" t="n">
         <v>1779.660277467715</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>658.0735976634411</v>
+        <v>88.53248476653822</v>
       </c>
       <c r="C30" t="n">
-        <v>658.0735976634411</v>
+        <v>88.53248476653822</v>
       </c>
       <c r="D30" t="n">
-        <v>497.2934814244728</v>
+        <v>88.53248476653822</v>
       </c>
       <c r="E30" t="n">
-        <v>323.7302775458873</v>
+        <v>88.53248476653822</v>
       </c>
       <c r="F30" t="n">
-        <v>323.7302775458873</v>
+        <v>88.53248476653822</v>
       </c>
       <c r="G30" t="n">
-        <v>323.7302775458873</v>
+        <v>88.53248476653822</v>
       </c>
       <c r="H30" t="n">
-        <v>196.7807059521151</v>
+        <v>88.53248476653822</v>
       </c>
       <c r="I30" t="n">
-        <v>88.53248476653823</v>
+        <v>88.53248476653822</v>
       </c>
       <c r="J30" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
       <c r="K30" t="n">
-        <v>74.95631296890321</v>
+        <v>74.95631296890319</v>
       </c>
       <c r="L30" t="n">
         <v>193.5233548964086</v>
       </c>
       <c r="M30" t="n">
-        <v>376.6401645971885</v>
+        <v>376.6401645971884</v>
       </c>
       <c r="N30" t="n">
-        <v>583.0234209365547</v>
+        <v>583.0234209365545</v>
       </c>
       <c r="O30" t="n">
-        <v>716.0766978848382</v>
+        <v>716.076697884838</v>
       </c>
       <c r="P30" t="n">
-        <v>800.7871810738254</v>
+        <v>800.7871810738253</v>
       </c>
       <c r="Q30" t="n">
-        <v>794.5886092341632</v>
+        <v>794.5886092341631</v>
       </c>
       <c r="R30" t="n">
-        <v>794.5886092341632</v>
+        <v>658.8680661888345</v>
       </c>
       <c r="S30" t="n">
-        <v>782.0364618690428</v>
+        <v>658.8680661888345</v>
       </c>
       <c r="T30" t="n">
-        <v>779.9853255483939</v>
+        <v>656.8169298681856</v>
       </c>
       <c r="U30" t="n">
-        <v>755.4292300607634</v>
+        <v>417.192998776373</v>
       </c>
       <c r="V30" t="n">
-        <v>727.4173475685795</v>
+        <v>174.1132806800071</v>
       </c>
       <c r="W30" t="n">
-        <v>673.0866139030529</v>
+        <v>119.7825470144806</v>
       </c>
       <c r="X30" t="n">
-        <v>668.6464551239313</v>
+        <v>115.3423882353591</v>
       </c>
       <c r="Y30" t="n">
-        <v>658.0735976634411</v>
+        <v>88.53248476653822</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.07516654911175</v>
+        <v>71.02240076645225</v>
       </c>
       <c r="C31" t="n">
-        <v>36.07516654911175</v>
+        <v>71.02240076645225</v>
       </c>
       <c r="D31" t="n">
-        <v>36.07516654911175</v>
+        <v>71.02240076645225</v>
       </c>
       <c r="E31" t="n">
-        <v>36.07516654911175</v>
+        <v>71.02240076645225</v>
       </c>
       <c r="F31" t="n">
-        <v>36.07516654911175</v>
+        <v>71.02240076645225</v>
       </c>
       <c r="G31" t="n">
-        <v>36.07516654911175</v>
+        <v>114.8013844301392</v>
       </c>
       <c r="H31" t="n">
-        <v>36.07516654911175</v>
+        <v>114.8013844301392</v>
       </c>
       <c r="I31" t="n">
-        <v>36.07516654911175</v>
+        <v>114.8013844301392</v>
       </c>
       <c r="J31" t="n">
-        <v>128.1628379474581</v>
+        <v>114.8013844301392</v>
       </c>
       <c r="K31" t="n">
-        <v>270.228498281052</v>
+        <v>259.7833154072474</v>
       </c>
       <c r="L31" t="n">
-        <v>270.228498281052</v>
+        <v>259.7833154072474</v>
       </c>
       <c r="M31" t="n">
-        <v>270.228498281052</v>
+        <v>259.7833154072474</v>
       </c>
       <c r="N31" t="n">
-        <v>270.228498281052</v>
+        <v>259.7833154072474</v>
       </c>
       <c r="O31" t="n">
-        <v>270.228498281052</v>
+        <v>259.7833154072474</v>
       </c>
       <c r="P31" t="n">
-        <v>270.228498281052</v>
+        <v>259.7833154072474</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.228498281052</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="R31" t="n">
-        <v>270.228498281052</v>
+        <v>270.2284982810516</v>
       </c>
       <c r="S31" t="n">
-        <v>247.5648574270852</v>
+        <v>247.5648574270849</v>
       </c>
       <c r="T31" t="n">
-        <v>236.6316904687928</v>
+        <v>236.6316904687925</v>
       </c>
       <c r="U31" t="n">
-        <v>160.1275115022786</v>
+        <v>160.1275115022783</v>
       </c>
       <c r="V31" t="n">
-        <v>127.610483283784</v>
+        <v>127.6104832837838</v>
       </c>
       <c r="W31" t="n">
-        <v>49.43518041388997</v>
+        <v>49.43518041388984</v>
       </c>
       <c r="X31" t="n">
-        <v>40.34194994914019</v>
+        <v>40.34194994914013</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.07516654911175</v>
+        <v>36.07516654911174</v>
       </c>
     </row>
     <row r="32">
@@ -6707,16 +6707,16 @@
         <v>636.4155757908258</v>
       </c>
       <c r="M32" t="n">
-        <v>929.9307874696019</v>
+        <v>929.9307874696015</v>
       </c>
       <c r="N32" t="n">
-        <v>1217.942176136766</v>
+        <v>1217.942176136765</v>
       </c>
       <c r="O32" t="n">
-        <v>1464.740672711605</v>
+        <v>1464.740672711604</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.115223691695</v>
+        <v>1662.115223691694</v>
       </c>
       <c r="Q32" t="n">
         <v>1785.235767148034</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>240.4900738201973</v>
+        <v>209.6383704276973</v>
       </c>
       <c r="C33" t="n">
-        <v>240.4900738201973</v>
+        <v>209.6383704276973</v>
       </c>
       <c r="D33" t="n">
-        <v>240.4900738201973</v>
+        <v>209.6383704276973</v>
       </c>
       <c r="E33" t="n">
-        <v>66.92686994161178</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="F33" t="n">
-        <v>66.92686994161178</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="G33" t="n">
-        <v>66.92686994161178</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="H33" t="n">
-        <v>66.92686994161178</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="I33" t="n">
-        <v>66.92686994161178</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="J33" t="n">
         <v>36.07516654911175</v>
@@ -6807,22 +6807,22 @@
         <v>794.5886092341632</v>
       </c>
       <c r="T33" t="n">
-        <v>792.5374729135143</v>
+        <v>577.4696373093321</v>
       </c>
       <c r="U33" t="n">
-        <v>767.9813774258838</v>
+        <v>552.9135418217016</v>
       </c>
       <c r="V33" t="n">
-        <v>739.9694949336999</v>
+        <v>457.5179732597708</v>
       </c>
       <c r="W33" t="n">
-        <v>470.5709256639913</v>
+        <v>403.1872395942442</v>
       </c>
       <c r="X33" t="n">
-        <v>466.1307668848697</v>
+        <v>398.7470808151226</v>
       </c>
       <c r="Y33" t="n">
-        <v>240.4900738201973</v>
+        <v>388.1742233546324</v>
       </c>
     </row>
     <row r="34">
@@ -6838,43 +6838,43 @@
         <v>36.07516654911175</v>
       </c>
       <c r="D34" t="n">
-        <v>103.132328476567</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="E34" t="n">
-        <v>173.6609343521231</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="F34" t="n">
-        <v>173.6609343521231</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="G34" t="n">
-        <v>173.6609343521231</v>
+        <v>36.07516654911175</v>
       </c>
       <c r="H34" t="n">
-        <v>173.6609343521231</v>
+        <v>82.73936520355083</v>
       </c>
       <c r="I34" t="n">
-        <v>173.6609343521231</v>
+        <v>125.2465673039439</v>
       </c>
       <c r="J34" t="n">
-        <v>184.9863110441007</v>
+        <v>125.2465673039439</v>
       </c>
       <c r="K34" t="n">
-        <v>184.9863110441007</v>
+        <v>270.228498281052</v>
       </c>
       <c r="L34" t="n">
-        <v>184.9863110441007</v>
+        <v>270.228498281052</v>
       </c>
       <c r="M34" t="n">
-        <v>184.9863110441007</v>
+        <v>270.228498281052</v>
       </c>
       <c r="N34" t="n">
-        <v>184.9863110441007</v>
+        <v>270.228498281052</v>
       </c>
       <c r="O34" t="n">
-        <v>184.9863110441007</v>
+        <v>270.228498281052</v>
       </c>
       <c r="P34" t="n">
-        <v>184.9863110441007</v>
+        <v>270.228498281052</v>
       </c>
       <c r="Q34" t="n">
         <v>270.228498281052</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>773.6196706102307</v>
+        <v>773.6196706102301</v>
       </c>
       <c r="C35" t="n">
-        <v>670.4759701361763</v>
+        <v>670.4759701361758</v>
       </c>
       <c r="D35" t="n">
-        <v>579.891196671164</v>
+        <v>579.8911966711635</v>
       </c>
       <c r="E35" t="n">
-        <v>455.2591985400821</v>
+        <v>455.2591985400816</v>
       </c>
       <c r="F35" t="n">
-        <v>298.5864553803362</v>
+        <v>298.5864553803357</v>
       </c>
       <c r="G35" t="n">
         <v>126.1276587878504</v>
       </c>
       <c r="H35" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="I35" t="n">
-        <v>33.73340056967346</v>
+        <v>33.73340056967348</v>
       </c>
       <c r="J35" t="n">
-        <v>204.2335233968654</v>
+        <v>204.2335233968655</v>
       </c>
       <c r="K35" t="n">
-        <v>444.5372054429164</v>
+        <v>444.5372054429166</v>
       </c>
       <c r="L35" t="n">
-        <v>738.5467575026503</v>
+        <v>738.5467575026505</v>
       </c>
       <c r="M35" t="n">
-        <v>910.6847858966763</v>
+        <v>1064.14813825704</v>
       </c>
       <c r="N35" t="n">
-        <v>987.9081888881813</v>
+        <v>1141.371541248545</v>
       </c>
       <c r="O35" t="n">
-        <v>1269.531001360108</v>
+        <v>1177.382052147725</v>
       </c>
       <c r="P35" t="n">
-        <v>1269.531001360108</v>
+        <v>1177.382052147725</v>
       </c>
       <c r="Q35" t="n">
-        <v>1269.531001360108</v>
+        <v>1216.184125155467</v>
       </c>
       <c r="R35" t="n">
-        <v>1269.531001360108</v>
+        <v>1269.531001360107</v>
       </c>
       <c r="S35" t="n">
-        <v>1290.143552666533</v>
+        <v>1290.143552666532</v>
       </c>
       <c r="T35" t="n">
-        <v>1315.56113436117</v>
+        <v>1315.561134361169</v>
       </c>
       <c r="U35" t="n">
-        <v>1313.483913000719</v>
+        <v>1313.483913000718</v>
       </c>
       <c r="V35" t="n">
         <v>1239.962145629721</v>
       </c>
       <c r="W35" t="n">
-        <v>1149.251812383356</v>
+        <v>1149.251812383355</v>
       </c>
       <c r="X35" t="n">
         <v>1036.434155430991</v>
       </c>
       <c r="Y35" t="n">
-        <v>900.8863438081784</v>
+        <v>900.8863438081778</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>521.0076822515682</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="C36" t="n">
-        <v>521.0076822515682</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="D36" t="n">
-        <v>521.0076822515682</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="E36" t="n">
-        <v>347.4444783729826</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="F36" t="n">
-        <v>187.0167620902267</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="G36" t="n">
-        <v>187.0167620902267</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="H36" t="n">
-        <v>187.0167620902267</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="I36" t="n">
-        <v>78.76854090464988</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="J36" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="K36" t="n">
-        <v>65.19236910701485</v>
+        <v>65.19236910701483</v>
       </c>
       <c r="L36" t="n">
         <v>183.7594110345203</v>
@@ -7041,25 +7041,25 @@
         <v>649.1041223269463</v>
       </c>
       <c r="S36" t="n">
-        <v>539.8070253476758</v>
+        <v>455.6857894942941</v>
       </c>
       <c r="T36" t="n">
-        <v>539.8070253476758</v>
+        <v>455.6857894942941</v>
       </c>
       <c r="U36" t="n">
-        <v>539.8070253476758</v>
+        <v>455.6857894942941</v>
       </c>
       <c r="V36" t="n">
-        <v>539.8070253476758</v>
+        <v>455.6857894942941</v>
       </c>
       <c r="W36" t="n">
-        <v>521.0076822515682</v>
+        <v>430.4877686788308</v>
       </c>
       <c r="X36" t="n">
-        <v>521.0076822515682</v>
+        <v>430.4877686788308</v>
       </c>
       <c r="Y36" t="n">
-        <v>521.0076822515682</v>
+        <v>204.8470756141585</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.3112226872234</v>
+        <v>52.22326340580976</v>
       </c>
       <c r="C37" t="n">
-        <v>107.1309150977172</v>
+        <v>52.22326340580976</v>
       </c>
       <c r="D37" t="n">
-        <v>107.1309150977172</v>
+        <v>52.22326340580976</v>
       </c>
       <c r="E37" t="n">
-        <v>107.1309150977172</v>
+        <v>52.22326340580976</v>
       </c>
       <c r="F37" t="n">
-        <v>109.9279233847936</v>
+        <v>52.22326340580976</v>
       </c>
       <c r="G37" t="n">
-        <v>109.9279233847936</v>
+        <v>52.22326340580976</v>
       </c>
       <c r="H37" t="n">
-        <v>109.9279233847936</v>
+        <v>52.22326340580976</v>
       </c>
       <c r="I37" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="J37" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="K37" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="L37" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="M37" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="N37" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="O37" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="P37" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="S37" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="T37" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="U37" t="n">
-        <v>68.95513498769839</v>
+        <v>68.95513498769833</v>
       </c>
       <c r="V37" t="n">
-        <v>68.95513498769839</v>
+        <v>68.95513498769833</v>
       </c>
       <c r="W37" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="X37" t="n">
-        <v>26.3112226872234</v>
+        <v>52.22326340580976</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.3112226872234</v>
+        <v>52.22326340580976</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>773.6196706102307</v>
+        <v>773.6196706102305</v>
       </c>
       <c r="C38" t="n">
-        <v>670.4759701361766</v>
+        <v>670.4759701361763</v>
       </c>
       <c r="D38" t="n">
-        <v>579.8911966711642</v>
+        <v>579.891196671164</v>
       </c>
       <c r="E38" t="n">
-        <v>455.2591985400823</v>
+        <v>455.2591985400822</v>
       </c>
       <c r="F38" t="n">
         <v>298.5864553803364</v>
@@ -7166,49 +7166,49 @@
         <v>126.1276587878504</v>
       </c>
       <c r="H38" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="I38" t="n">
-        <v>26.3112226872234</v>
+        <v>33.73340056967348</v>
       </c>
       <c r="J38" t="n">
-        <v>85.09073705118021</v>
+        <v>204.2335233968655</v>
       </c>
       <c r="K38" t="n">
-        <v>325.3944190972313</v>
+        <v>444.5372054429166</v>
       </c>
       <c r="L38" t="n">
-        <v>619.4039711569651</v>
+        <v>492.9344559299039</v>
       </c>
       <c r="M38" t="n">
-        <v>945.0053519113546</v>
+        <v>575.661681933021</v>
       </c>
       <c r="N38" t="n">
-        <v>1022.22875490286</v>
+        <v>652.8850849245259</v>
       </c>
       <c r="O38" t="n">
-        <v>1058.23926580204</v>
+        <v>934.5078973964527</v>
       </c>
       <c r="P38" t="n">
-        <v>1058.23926580204</v>
+        <v>1058.239265802039</v>
       </c>
       <c r="Q38" t="n">
         <v>1216.184125155467</v>
       </c>
       <c r="R38" t="n">
-        <v>1269.531001360108</v>
+        <v>1269.531001360107</v>
       </c>
       <c r="S38" t="n">
-        <v>1290.143552666533</v>
+        <v>1290.143552666532</v>
       </c>
       <c r="T38" t="n">
-        <v>1315.56113436117</v>
+        <v>1315.561134361169</v>
       </c>
       <c r="U38" t="n">
-        <v>1313.483913000719</v>
+        <v>1313.483913000718</v>
       </c>
       <c r="V38" t="n">
-        <v>1239.962145629722</v>
+        <v>1239.962145629721</v>
       </c>
       <c r="W38" t="n">
         <v>1149.251812383356</v>
@@ -7217,7 +7217,7 @@
         <v>1036.434155430991</v>
       </c>
       <c r="Y38" t="n">
-        <v>900.8863438081785</v>
+        <v>900.8863438081781</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>710.4945333545694</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="C39" t="n">
-        <v>521.0822590875331</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="D39" t="n">
-        <v>360.3021428485648</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="E39" t="n">
-        <v>186.7389389699793</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="F39" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="G39" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="H39" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="J39" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="K39" t="n">
-        <v>65.19236910701485</v>
+        <v>65.19236910701483</v>
       </c>
       <c r="L39" t="n">
         <v>183.7594110345203</v>
@@ -7272,31 +7272,31 @@
         <v>791.023237211937</v>
       </c>
       <c r="Q39" t="n">
-        <v>784.8246653722748</v>
+        <v>791.023237211937</v>
       </c>
       <c r="R39" t="n">
-        <v>784.8246653722748</v>
+        <v>740.8584794049081</v>
       </c>
       <c r="S39" t="n">
-        <v>784.8246653722748</v>
+        <v>740.8584794049081</v>
       </c>
       <c r="T39" t="n">
-        <v>784.8246653722748</v>
+        <v>740.8584794049081</v>
       </c>
       <c r="U39" t="n">
-        <v>784.8246653722748</v>
+        <v>740.8584794049081</v>
       </c>
       <c r="V39" t="n">
-        <v>729.293876450677</v>
+        <v>740.8584794049081</v>
       </c>
       <c r="W39" t="n">
-        <v>710.4945333545694</v>
+        <v>471.4599101351994</v>
       </c>
       <c r="X39" t="n">
-        <v>710.4945333545694</v>
+        <v>251.9519157518957</v>
       </c>
       <c r="Y39" t="n">
-        <v>710.4945333545694</v>
+        <v>26.31122268722338</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>56.95366417394311</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="C40" t="n">
-        <v>56.95366417394311</v>
+        <v>107.1309150977172</v>
       </c>
       <c r="D40" t="n">
-        <v>109.9279233847936</v>
+        <v>107.1309150977172</v>
       </c>
       <c r="E40" t="n">
-        <v>109.9279233847936</v>
+        <v>107.1309150977172</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9279233847936</v>
+        <v>107.1309150977172</v>
       </c>
       <c r="G40" t="n">
-        <v>109.9279233847936</v>
+        <v>107.1309150977172</v>
       </c>
       <c r="H40" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="I40" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="J40" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="K40" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="L40" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="M40" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="N40" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="O40" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="P40" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="Q40" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="S40" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="T40" t="n">
-        <v>109.9279233847936</v>
+        <v>109.9279233847935</v>
       </c>
       <c r="U40" t="n">
-        <v>68.95513498769839</v>
+        <v>68.95513498769833</v>
       </c>
       <c r="V40" t="n">
-        <v>68.95513498769839</v>
+        <v>68.95513498769833</v>
       </c>
       <c r="W40" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="X40" t="n">
-        <v>26.3112226872234</v>
+        <v>26.31122268722338</v>
       </c>
       <c r="Y40" t="n">
-        <v>56.95366417394311</v>
+        <v>26.31122268722338</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.9115219629606</v>
+        <v>820.9115219629605</v>
       </c>
       <c r="C41" t="n">
-        <v>710.1949433311161</v>
+        <v>710.194943331116</v>
       </c>
       <c r="D41" t="n">
-        <v>612.0372917083139</v>
+        <v>612.0372917083137</v>
       </c>
       <c r="E41" t="n">
-        <v>479.832415419442</v>
+        <v>479.8324154194418</v>
       </c>
       <c r="F41" t="n">
-        <v>315.5867941019059</v>
+        <v>315.586794101906</v>
       </c>
       <c r="G41" t="n">
         <v>135.5551193516299</v>
       </c>
       <c r="H41" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="I41" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="J41" t="n">
         <v>191.2437500379547</v>
@@ -7415,16 +7415,16 @@
         <v>424.1252542015557</v>
       </c>
       <c r="L41" t="n">
-        <v>472.5225046885431</v>
+        <v>521.7291450524849</v>
       </c>
       <c r="M41" t="n">
-        <v>591.0429363600325</v>
+        <v>604.4563710556019</v>
       </c>
       <c r="N41" t="n">
-        <v>906.4564630418339</v>
+        <v>681.679774047107</v>
       </c>
       <c r="O41" t="n">
-        <v>1180.657097631311</v>
+        <v>955.8804086365836</v>
       </c>
       <c r="P41" t="n">
         <v>1180.657097631311</v>
@@ -7433,13 +7433,13 @@
         <v>1331.179779102288</v>
       </c>
       <c r="R41" t="n">
-        <v>1377.104477424478</v>
+        <v>1377.104477424479</v>
       </c>
       <c r="S41" t="n">
         <v>1390.294850848453</v>
       </c>
       <c r="T41" t="n">
-        <v>1408.29025466064</v>
+        <v>1408.290254660641</v>
       </c>
       <c r="U41" t="n">
         <v>1398.640155142399</v>
@@ -7454,7 +7454,7 @@
         <v>1098.871763099301</v>
       </c>
       <c r="Y41" t="n">
-        <v>955.7510733186984</v>
+        <v>955.7510733186983</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>581.7178035168765</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="C42" t="n">
-        <v>392.3055292498402</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="D42" t="n">
-        <v>362.4345483748017</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="E42" t="n">
-        <v>188.8713444962161</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="F42" t="n">
-        <v>188.8713444962161</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="G42" t="n">
-        <v>188.8713444962161</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="H42" t="n">
-        <v>188.8713444962161</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="I42" t="n">
-        <v>80.62312331063927</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="J42" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="K42" t="n">
-        <v>67.04695151300425</v>
+        <v>67.04695151300426</v>
       </c>
       <c r="L42" t="n">
         <v>185.6139934405097</v>
@@ -7524,16 +7524,16 @@
         <v>786.6792477782642</v>
       </c>
       <c r="V42" t="n">
-        <v>786.6258776977094</v>
+        <v>678.2225667220216</v>
       </c>
       <c r="W42" t="n">
-        <v>760.2536564438117</v>
+        <v>651.8503454681239</v>
       </c>
       <c r="X42" t="n">
-        <v>760.2536564438117</v>
+        <v>432.3423510848203</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.2536564438117</v>
+        <v>206.7016580201479</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>33.55603402303514</v>
+        <v>90.51517732519076</v>
       </c>
       <c r="C43" t="n">
-        <v>33.55603402303514</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="D43" t="n">
-        <v>33.55603402303514</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="E43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="F43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="G43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="H43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="I43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="J43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="K43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="L43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="M43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="N43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="O43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="P43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="R43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="S43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="T43" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="U43" t="n">
-        <v>82.94111135834351</v>
+        <v>82.94111135834356</v>
       </c>
       <c r="V43" t="n">
-        <v>78.38259555147786</v>
+        <v>78.38259555147789</v>
       </c>
       <c r="W43" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="X43" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.1658050932128</v>
+        <v>28.16580509321281</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.9115219629617</v>
+        <v>820.9115219629614</v>
       </c>
       <c r="C44" t="n">
-        <v>710.1949433311174</v>
+        <v>710.194943331117</v>
       </c>
       <c r="D44" t="n">
-        <v>612.0372917083148</v>
+        <v>612.0372917083143</v>
       </c>
       <c r="E44" t="n">
-        <v>479.8324154194424</v>
+        <v>479.832415419442</v>
       </c>
       <c r="F44" t="n">
-        <v>315.5867941019064</v>
+        <v>315.586794101906</v>
       </c>
       <c r="G44" t="n">
         <v>135.5551193516299</v>
@@ -7649,49 +7649,49 @@
         <v>191.2437500379547</v>
       </c>
       <c r="K44" t="n">
-        <v>266.327548111363</v>
+        <v>235.1417708752011</v>
       </c>
       <c r="L44" t="n">
-        <v>314.7247985983504</v>
+        <v>521.7291450524849</v>
       </c>
       <c r="M44" t="n">
-        <v>397.4520246014674</v>
+        <v>842.6464947458983</v>
       </c>
       <c r="N44" t="n">
-        <v>712.8655512832688</v>
+        <v>919.8698977374033</v>
       </c>
       <c r="O44" t="n">
-        <v>987.0661858727455</v>
+        <v>955.8804086365836</v>
       </c>
       <c r="P44" t="n">
-        <v>1211.842874867473</v>
+        <v>1180.657097631311</v>
       </c>
       <c r="Q44" t="n">
-        <v>1362.36555633845</v>
+        <v>1331.179779102288</v>
       </c>
       <c r="R44" t="n">
-        <v>1408.290254660641</v>
+        <v>1377.104477424479</v>
       </c>
       <c r="S44" t="n">
-        <v>1408.290254660641</v>
+        <v>1390.294850848453</v>
       </c>
       <c r="T44" t="n">
         <v>1408.290254660641</v>
       </c>
       <c r="U44" t="n">
-        <v>1398.6401551424</v>
+        <v>1398.640155142399</v>
       </c>
       <c r="V44" t="n">
-        <v>1317.545509613613</v>
+        <v>1317.545509613612</v>
       </c>
       <c r="W44" t="n">
         <v>1219.262298209457</v>
       </c>
       <c r="X44" t="n">
-        <v>1098.871763099303</v>
+        <v>1098.871763099302</v>
       </c>
       <c r="Y44" t="n">
-        <v>955.7510733186996</v>
+        <v>955.7510733186992</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>230.8643992616655</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="C45" t="n">
-        <v>230.8643992616655</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="D45" t="n">
-        <v>230.8643992616655</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="E45" t="n">
-        <v>230.8643992616655</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="F45" t="n">
-        <v>230.8643992616655</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="G45" t="n">
-        <v>80.62312331063929</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="H45" t="n">
-        <v>80.62312331063929</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="I45" t="n">
-        <v>80.62312331063929</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="J45" t="n">
         <v>28.16580509321281</v>
@@ -7746,31 +7746,31 @@
         <v>792.8778196179264</v>
       </c>
       <c r="Q45" t="n">
-        <v>786.6792477782642</v>
+        <v>792.8778196179264</v>
       </c>
       <c r="R45" t="n">
-        <v>786.6792477782642</v>
+        <v>792.8778196179264</v>
       </c>
       <c r="S45" t="n">
-        <v>786.6792477782642</v>
+        <v>792.8778196179264</v>
       </c>
       <c r="T45" t="n">
-        <v>569.5602758534332</v>
+        <v>792.8778196179264</v>
       </c>
       <c r="U45" t="n">
-        <v>569.5602758534332</v>
+        <v>701.7942904350839</v>
       </c>
       <c r="V45" t="n">
-        <v>326.4805577570672</v>
+        <v>458.714572338718</v>
       </c>
       <c r="W45" t="n">
-        <v>300.1083365031696</v>
+        <v>432.3423510848203</v>
       </c>
       <c r="X45" t="n">
-        <v>300.1083365031696</v>
+        <v>432.3423510848203</v>
       </c>
       <c r="Y45" t="n">
-        <v>230.8643992616655</v>
+        <v>206.7016580201479</v>
       </c>
     </row>
     <row r="46">
@@ -7816,31 +7816,31 @@
         <v>28.16580509321281</v>
       </c>
       <c r="N46" t="n">
-        <v>89.28855296620013</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="O46" t="n">
-        <v>89.28855296620013</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="P46" t="n">
-        <v>89.28855296620013</v>
+        <v>28.16580509321281</v>
       </c>
       <c r="Q46" t="n">
-        <v>89.28855296620013</v>
+        <v>77.79151550104987</v>
       </c>
       <c r="R46" t="n">
-        <v>126.2972742995641</v>
+        <v>114.8002368344138</v>
       </c>
       <c r="S46" t="n">
-        <v>131.4867779132288</v>
+        <v>114.8002368344138</v>
       </c>
       <c r="T46" t="n">
-        <v>131.4867779132288</v>
+        <v>131.4867779132289</v>
       </c>
       <c r="U46" t="n">
-        <v>82.94111135834351</v>
+        <v>82.94111135834356</v>
       </c>
       <c r="V46" t="n">
-        <v>78.38259555147786</v>
+        <v>78.38259555147789</v>
       </c>
       <c r="W46" t="n">
         <v>28.16580509321281</v>
@@ -8772,16 +8772,16 @@
         <v>132.0995883116343</v>
       </c>
       <c r="L12" t="n">
-        <v>240.3045437566416</v>
+        <v>152.0917238005118</v>
       </c>
       <c r="M12" t="n">
-        <v>238.8597051383722</v>
+        <v>238.8597051383723</v>
       </c>
       <c r="N12" t="n">
-        <v>135.9824011957677</v>
+        <v>224.1952211518977</v>
       </c>
       <c r="O12" t="n">
-        <v>242.8748317222145</v>
+        <v>242.8748317222146</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9006,22 +9006,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>132.0995883116343</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>240.3045437566416</v>
+        <v>198.3839831633359</v>
       </c>
       <c r="M15" t="n">
-        <v>238.8597051383722</v>
+        <v>238.8597051383723</v>
       </c>
       <c r="N15" t="n">
-        <v>135.9824011957677</v>
+        <v>224.1952211518977</v>
       </c>
       <c r="O15" t="n">
-        <v>242.8748317222145</v>
+        <v>242.8748317222146</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786793</v>
+        <v>120.7977294433386</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9246,19 +9246,19 @@
         <v>132.0995883116343</v>
       </c>
       <c r="L18" t="n">
-        <v>240.3045437566416</v>
+        <v>237.6578684358525</v>
       </c>
       <c r="M18" t="n">
-        <v>150.6468851822424</v>
+        <v>238.8597051383723</v>
       </c>
       <c r="N18" t="n">
-        <v>224.1952211518976</v>
+        <v>224.1952211518977</v>
       </c>
       <c r="O18" t="n">
-        <v>242.8748317222145</v>
+        <v>242.8748317222146</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3638740786793</v>
+        <v>120.7977294433386</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9483,19 +9483,19 @@
         <v>132.0995883116343</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>152.0917238005118</v>
       </c>
       <c r="M21" t="n">
-        <v>236.213029817583</v>
+        <v>238.8597051383723</v>
       </c>
       <c r="N21" t="n">
-        <v>224.1952211518976</v>
+        <v>224.1952211518977</v>
       </c>
       <c r="O21" t="n">
-        <v>242.8748317222145</v>
+        <v>242.8748317222146</v>
       </c>
       <c r="P21" t="n">
-        <v>120.7977294433386</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>132.0995883116343</v>
+        <v>165.9360666291091</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>238.8597051383722</v>
+        <v>238.8597051383723</v>
       </c>
       <c r="N24" t="n">
-        <v>221.5485458311084</v>
+        <v>224.1952211518977</v>
       </c>
       <c r="O24" t="n">
-        <v>242.8748317222145</v>
+        <v>120.8255334486101</v>
       </c>
       <c r="P24" t="n">
-        <v>120.7977294433386</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>179.7047647029785</v>
+        <v>179.3437842789509</v>
       </c>
       <c r="C11" t="n">
-        <v>155.823021706324</v>
+        <v>155.8230217063242</v>
       </c>
       <c r="D11" t="n">
-        <v>143.3896839673725</v>
+        <v>143.3896839673727</v>
       </c>
       <c r="E11" t="n">
-        <v>177.0964363867813</v>
+        <v>177.0964363867815</v>
       </c>
       <c r="F11" t="n">
-        <v>208.8167739651587</v>
+        <v>208.8167739651589</v>
       </c>
       <c r="G11" t="n">
-        <v>224.4449668635716</v>
+        <v>102.3956685899674</v>
       </c>
       <c r="H11" t="n">
-        <v>30.47973170302669</v>
+        <v>30.47973170302677</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>55.76720738385736</v>
       </c>
       <c r="V11" t="n">
-        <v>59.85423662052128</v>
+        <v>4.448009660692946</v>
       </c>
       <c r="W11" t="n">
-        <v>143.5139881509121</v>
+        <v>143.5139881509123</v>
       </c>
       <c r="X11" t="n">
-        <v>43.35094034624697</v>
+        <v>165.4002386198515</v>
       </c>
       <c r="Y11" t="n">
-        <v>187.9030917435951</v>
+        <v>187.9030917435953</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>179.7047647029785</v>
+        <v>72.20374278358788</v>
       </c>
       <c r="C14" t="n">
-        <v>155.823021706324</v>
+        <v>155.8230217063242</v>
       </c>
       <c r="D14" t="n">
-        <v>143.3896839673725</v>
+        <v>21.34038569376821</v>
       </c>
       <c r="E14" t="n">
-        <v>177.0964363867813</v>
+        <v>177.0964363867815</v>
       </c>
       <c r="F14" t="n">
-        <v>86.76747569155432</v>
+        <v>208.8167739651589</v>
       </c>
       <c r="G14" t="n">
-        <v>157.8018955497959</v>
+        <v>224.4449668635718</v>
       </c>
       <c r="H14" t="n">
-        <v>30.47973170302668</v>
+        <v>30.47973170302677</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>46.21360886079829</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>32.88999934163209</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>28.03643329293232</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>55.76720738385736</v>
       </c>
       <c r="V14" t="n">
-        <v>126.4973079342972</v>
+        <v>4.448009660692946</v>
       </c>
       <c r="W14" t="n">
-        <v>143.5139881509121</v>
+        <v>143.5139881509123</v>
       </c>
       <c r="X14" t="n">
-        <v>165.4002386198513</v>
+        <v>165.4002386198515</v>
       </c>
       <c r="Y14" t="n">
-        <v>187.9030917435951</v>
+        <v>187.9030917435953</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1141202.323223775</v>
+        <v>1141202.323223774</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1141202.323223775</v>
+        <v>1141202.323223774</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308676.1983117608</v>
+        <v>308676.1983117607</v>
       </c>
       <c r="C2" t="n">
         <v>308676.1983117608</v>
@@ -26320,13 +26320,13 @@
         <v>308676.1983117608</v>
       </c>
       <c r="E2" t="n">
-        <v>265996.5311571676</v>
+        <v>265996.5311571677</v>
       </c>
       <c r="F2" t="n">
         <v>265996.5311571677</v>
       </c>
       <c r="G2" t="n">
-        <v>309301.4921004874</v>
+        <v>309301.4921004872</v>
       </c>
       <c r="H2" t="n">
         <v>309301.4921004873</v>
@@ -26335,10 +26335,10 @@
         <v>309301.4921004875</v>
       </c>
       <c r="J2" t="n">
-        <v>309301.4921004877</v>
+        <v>309301.4921004878</v>
       </c>
       <c r="K2" t="n">
-        <v>309301.4921004877</v>
+        <v>309301.4921004878</v>
       </c>
       <c r="L2" t="n">
         <v>309301.4921004878</v>
@@ -26350,10 +26350,10 @@
         <v>309301.4921004872</v>
       </c>
       <c r="O2" t="n">
-        <v>309301.4921004872</v>
+        <v>309301.4921004873</v>
       </c>
       <c r="P2" t="n">
-        <v>309301.4921004872</v>
+        <v>309301.4921004873</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>275373.0470845678</v>
+        <v>275373.0470845677</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>101197.8463474378</v>
+        <v>101197.8463474379</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>155188.0488107729</v>
+        <v>155188.0488107728</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>101197.8463474378</v>
+        <v>101197.8463474379</v>
       </c>
       <c r="M3" t="n">
-        <v>28140.86133097992</v>
+        <v>28140.8613309799</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68716.99883240162</v>
+        <v>68716.99883240156</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,25 +26424,25 @@
         <v>456676.6510757953</v>
       </c>
       <c r="E4" t="n">
-        <v>349734.5238460589</v>
+        <v>349734.5238460588</v>
       </c>
       <c r="F4" t="n">
-        <v>349734.5238460589</v>
+        <v>349734.5238460588</v>
       </c>
       <c r="G4" t="n">
         <v>420238.0338746422</v>
       </c>
       <c r="H4" t="n">
-        <v>420238.0338746422</v>
+        <v>420238.0338746421</v>
       </c>
       <c r="I4" t="n">
         <v>420238.0338746422</v>
       </c>
       <c r="J4" t="n">
-        <v>419094.788274104</v>
+        <v>419094.7882741041</v>
       </c>
       <c r="K4" t="n">
-        <v>419094.788274104</v>
+        <v>419094.7882741041</v>
       </c>
       <c r="L4" t="n">
         <v>419094.788274104</v>
@@ -26451,7 +26451,7 @@
         <v>418553.2323741539</v>
       </c>
       <c r="N4" t="n">
-        <v>418553.2323741539</v>
+        <v>418553.2323741538</v>
       </c>
       <c r="O4" t="n">
         <v>418653.3257278842</v>
@@ -26476,13 +26476,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26025.8622633483</v>
+        <v>26025.86226334829</v>
       </c>
       <c r="F5" t="n">
-        <v>26025.8622633483</v>
+        <v>26025.86226334829</v>
       </c>
       <c r="G5" t="n">
-        <v>36660.36444407672</v>
+        <v>36660.36444407673</v>
       </c>
       <c r="H5" t="n">
         <v>36660.36444407673</v>
@@ -26500,10 +26500,10 @@
         <v>47580.58365082261</v>
       </c>
       <c r="M5" t="n">
-        <v>43117.20390483015</v>
+        <v>43117.20390483014</v>
       </c>
       <c r="N5" t="n">
-        <v>43117.20390483015</v>
+        <v>43117.20390483014</v>
       </c>
       <c r="O5" t="n">
         <v>43896.40868247332</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-181628.0527640345</v>
+        <v>-181632.5191482397</v>
       </c>
       <c r="C6" t="n">
-        <v>-181628.0527640345</v>
+        <v>-181632.5191482397</v>
       </c>
       <c r="D6" t="n">
-        <v>-181628.0527640345</v>
+        <v>-181632.5191482396</v>
       </c>
       <c r="E6" t="n">
-        <v>-385136.9020368074</v>
+        <v>-385446.2231864023</v>
       </c>
       <c r="F6" t="n">
-        <v>-109763.8549522395</v>
+        <v>-110073.1761018344</v>
       </c>
       <c r="G6" t="n">
-        <v>-248794.7525656693</v>
+        <v>-248794.7525656696</v>
       </c>
       <c r="H6" t="n">
-        <v>-147596.9062182317</v>
+        <v>-147596.9062182315</v>
       </c>
       <c r="I6" t="n">
-        <v>-147596.9062182315</v>
+        <v>-147596.9062182314</v>
       </c>
       <c r="J6" t="n">
-        <v>-312561.9286352119</v>
+        <v>-312561.9286352118</v>
       </c>
       <c r="K6" t="n">
-        <v>-157373.8798244389</v>
+        <v>-157373.879824439</v>
       </c>
       <c r="L6" t="n">
-        <v>-258571.7261718766</v>
+        <v>-258571.7261718767</v>
       </c>
       <c r="M6" t="n">
         <v>-180509.8055094766</v>
       </c>
       <c r="N6" t="n">
-        <v>-152368.9441784968</v>
+        <v>-152368.9441784967</v>
       </c>
       <c r="O6" t="n">
-        <v>-221965.2411422719</v>
+        <v>-221965.2411422718</v>
       </c>
       <c r="P6" t="n">
         <v>-153248.2423098702</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="F2" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="G2" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="I2" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="J2" t="n">
         <v>212.9171572481403</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="F4" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="G4" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="H4" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="I4" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="J4" t="n">
-        <v>450.939581863897</v>
+        <v>450.9395818638969</v>
       </c>
       <c r="K4" t="n">
         <v>450.9395818638968</v>
@@ -26820,13 +26820,13 @@
         <v>450.9395818638968</v>
       </c>
       <c r="M4" t="n">
-        <v>328.8902835902925</v>
+        <v>328.8902835902923</v>
       </c>
       <c r="N4" t="n">
-        <v>328.8902835902925</v>
+        <v>328.8902835902923</v>
       </c>
       <c r="O4" t="n">
-        <v>352.07256366516</v>
+        <v>352.0725636651601</v>
       </c>
       <c r="P4" t="n">
         <v>352.0725636651601</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>126.4973079342972</v>
+        <v>126.4973079342974</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.419849313843</v>
+        <v>86.41984931384292</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4973079342972</v>
+        <v>126.4973079342973</v>
       </c>
       <c r="M2" t="n">
-        <v>35.1760766637249</v>
+        <v>35.17607666372487</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.92269993763082</v>
+        <v>78.92269993763068</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736045</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>328.8902835902927</v>
+        <v>328.8902835902924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.18228007486755</v>
+        <v>23.18228007486783</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>126.4973079342972</v>
+        <v>126.4973079342974</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.419849313843</v>
+        <v>86.41984931384292</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736045</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="C11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="D11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="E11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="F11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="G11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="H11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="I11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="J11" t="n">
-        <v>194.3824756748548</v>
+        <v>75.87088762177221</v>
       </c>
       <c r="K11" t="n">
-        <v>5.362241946156956</v>
+        <v>13.74771599876723</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28129,34 +28129,34 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>25.47210820804942</v>
+        <v>135.5982222085226</v>
       </c>
       <c r="Q11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="R11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="S11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="T11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="U11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="V11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="W11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="X11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y11" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="12">
@@ -28190,7 +28190,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.93274503525221</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>12.31403934127087</v>
+        <v>12.31403934127076</v>
       </c>
       <c r="S12" t="n">
-        <v>131.8851871975024</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T12" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="U12" t="n">
-        <v>194.3824756748548</v>
+        <v>115.17839350729</v>
       </c>
       <c r="V12" t="n">
-        <v>194.3824756748548</v>
+        <v>162.0548505003446</v>
       </c>
       <c r="W12" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="X12" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y12" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="13">
@@ -28245,22 +28245,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>177.6169206649681</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="D13" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="E13" t="n">
-        <v>194.3824756748548</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6959616282545</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="H13" t="n">
         <v>165.7816030517371</v>
@@ -28269,10 +28269,10 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J13" t="n">
-        <v>194.3824756748548</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K13" t="n">
-        <v>144.9632628894615</v>
+        <v>66.47076232176845</v>
       </c>
       <c r="L13" t="n">
         <v>31.43620997383525</v>
@@ -28281,40 +28281,40 @@
         <v>24.46235891800148</v>
       </c>
       <c r="N13" t="n">
-        <v>15.78359136610009</v>
+        <v>29.03893268748588</v>
       </c>
       <c r="O13" t="n">
         <v>36.79854607717665</v>
       </c>
       <c r="P13" t="n">
-        <v>57.89645227716781</v>
+        <v>179.9457505507723</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="R13" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="S13" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="T13" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="U13" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="V13" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="W13" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="X13" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y13" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="14">
@@ -28324,40 +28324,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="C14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="D14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="E14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="F14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="G14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="H14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="I14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="J14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="K14" t="n">
-        <v>84.62848623043585</v>
+        <v>17.46040152231954</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>38.48644372500129</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.54892393491818</v>
+        <v>13.54892393491817</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.55297193870592</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="R14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.2075003718243</v>
       </c>
       <c r="S14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="T14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="U14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="V14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="W14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="X14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y14" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>65.46885325076158</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.3633376148752</v>
+        <v>12.31403934127076</v>
       </c>
       <c r="S15" t="n">
-        <v>191.4841495043256</v>
+        <v>131.8851871975033</v>
       </c>
       <c r="T15" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="U15" t="n">
-        <v>134.7835133680316</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="V15" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="W15" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="X15" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="16">
@@ -28503,55 +28503,55 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I16" t="n">
-        <v>194.3824756748548</v>
+        <v>164.7082190429235</v>
       </c>
       <c r="J16" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="K16" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176845</v>
       </c>
       <c r="L16" t="n">
-        <v>31.43620997383525</v>
+        <v>153.4855082474397</v>
       </c>
       <c r="M16" t="n">
-        <v>146.5116571916058</v>
+        <v>24.46235891800148</v>
       </c>
       <c r="N16" t="n">
-        <v>137.8328896397044</v>
+        <v>75.10778658774674</v>
       </c>
       <c r="O16" t="n">
-        <v>66.44848466689034</v>
+        <v>36.79854607717665</v>
       </c>
       <c r="P16" t="n">
-        <v>57.89645227716781</v>
+        <v>179.9457505507723</v>
       </c>
       <c r="Q16" t="n">
         <v>126.8139378168763</v>
       </c>
       <c r="R16" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="S16" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="T16" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="U16" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="V16" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="W16" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="X16" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.3824756748548</v>
+        <v>194.3824756748546</v>
       </c>
     </row>
     <row r="17">
@@ -28582,13 +28582,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="I17" t="n">
-        <v>320.879783609152</v>
+        <v>307.8443607092415</v>
       </c>
       <c r="J17" t="n">
-        <v>75.87088762177223</v>
+        <v>75.87088762177221</v>
       </c>
       <c r="K17" t="n">
-        <v>5.362241946156956</v>
+        <v>5.362241946156949</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,13 +28603,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.54892393491818</v>
+        <v>13.54892393491817</v>
       </c>
       <c r="Q17" t="n">
         <v>88.55297193870592</v>
       </c>
       <c r="R17" t="n">
-        <v>251.9021780223534</v>
+        <v>194.2075003718243</v>
       </c>
       <c r="S17" t="n">
         <v>227.2724750164867</v>
@@ -28618,7 +28618,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="U17" t="n">
-        <v>250.149683058712</v>
+        <v>320.879783609152</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -28643,7 +28643,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>65.46885325076147</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -28658,13 +28658,13 @@
         <v>148.7388631915159</v>
       </c>
       <c r="H18" t="n">
-        <v>3.630777604230133</v>
+        <v>3.630777604230019</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.93274503525221</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>12.31403934127087</v>
+        <v>12.31403934127076</v>
       </c>
       <c r="S18" t="n">
         <v>191.4841495043256</v>
@@ -28703,10 +28703,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>165.3401477788864</v>
       </c>
       <c r="X18" t="n">
-        <v>152.9976643767145</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28743,10 +28743,10 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J19" t="n">
-        <v>119.8993073508208</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K19" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176845</v>
       </c>
       <c r="L19" t="n">
         <v>31.43620997383525</v>
@@ -28755,7 +28755,7 @@
         <v>24.46235891800148</v>
       </c>
       <c r="N19" t="n">
-        <v>15.78359136610009</v>
+        <v>15.78359136610008</v>
       </c>
       <c r="O19" t="n">
         <v>36.79854607717665</v>
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="C20" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="D20" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="E20" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="F20" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="G20" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="I20" t="n">
-        <v>240.5960845356529</v>
+        <v>307.8443607092415</v>
       </c>
       <c r="J20" t="n">
-        <v>120.241955753135</v>
+        <v>75.87088762177221</v>
       </c>
       <c r="K20" t="n">
-        <v>5.362241946156956</v>
+        <v>5.362241946156949</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,7 +28840,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.54892393491818</v>
+        <v>13.54892393491817</v>
       </c>
       <c r="Q20" t="n">
         <v>88.55297193870592</v>
@@ -28849,25 +28849,25 @@
         <v>194.2075003718243</v>
       </c>
       <c r="S20" t="n">
-        <v>320.8797836091521</v>
+        <v>227.2724750164867</v>
       </c>
       <c r="T20" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="U20" t="n">
-        <v>250.149683058712</v>
+        <v>320.879783609152</v>
       </c>
       <c r="V20" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="X20" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="Y20" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
     </row>
     <row r="21">
@@ -28886,16 +28886,16 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>49.77827356619534</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>36.774140846324</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>148.7388631915159</v>
       </c>
       <c r="H21" t="n">
-        <v>76.24838511496161</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I21" t="n">
         <v>107.1657389737211</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>12.31403934127087</v>
+        <v>84.93164685200225</v>
       </c>
       <c r="S21" t="n">
         <v>191.4841495043256</v>
@@ -28937,16 +28937,16 @@
         <v>237.2276917808945</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>118.5996226417978</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>95.26361616586615</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>101.3349878604212</v>
       </c>
     </row>
     <row r="22">
@@ -28980,10 +28980,10 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J22" t="n">
-        <v>119.8993073508208</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K22" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176845</v>
       </c>
       <c r="L22" t="n">
         <v>31.43620997383525</v>
@@ -28992,7 +28992,7 @@
         <v>24.46235891800148</v>
       </c>
       <c r="N22" t="n">
-        <v>15.78359136610009</v>
+        <v>15.78359136610008</v>
       </c>
       <c r="O22" t="n">
         <v>36.79854607717665</v>
@@ -29035,34 +29035,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="C23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="D23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="E23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="F23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="G23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="I23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="J23" t="n">
-        <v>75.87088762177223</v>
+        <v>75.87088762177221</v>
       </c>
       <c r="K23" t="n">
-        <v>5.362241946156956</v>
+        <v>5.362241946156949</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,16 +29077,16 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.54892393491818</v>
+        <v>76.09716763414733</v>
       </c>
       <c r="Q23" t="n">
         <v>88.55297193870592</v>
       </c>
       <c r="R23" t="n">
-        <v>256.7557440710531</v>
+        <v>194.2075003718243</v>
       </c>
       <c r="S23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="T23" t="n">
         <v>222.4189089677869</v>
@@ -29095,16 +29095,16 @@
         <v>250.149683058712</v>
       </c>
       <c r="V23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="X23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
       <c r="Y23" t="n">
-        <v>320.8797836091521</v>
+        <v>320.879783609152</v>
       </c>
     </row>
     <row r="24">
@@ -29114,19 +29114,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>54.70119612406128</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>37.12301680297421</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>49.77827356619534</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>94.50818905717223</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7388631915159</v>
@@ -29135,7 +29135,7 @@
         <v>125.6800758778345</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>57.73404821084812</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29171,13 +29171,13 @@
         <v>214.9477822055827</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2276917808945</v>
+        <v>115.17839350729</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>144.6552853034071</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
@@ -29217,10 +29217,10 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J25" t="n">
-        <v>119.8993073508208</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K25" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176845</v>
       </c>
       <c r="L25" t="n">
         <v>31.43620997383525</v>
@@ -29229,7 +29229,7 @@
         <v>24.46235891800148</v>
       </c>
       <c r="N25" t="n">
-        <v>15.78359136610009</v>
+        <v>15.78359136610008</v>
       </c>
       <c r="O25" t="n">
         <v>36.79854607717665</v>
@@ -29308,13 +29308,13 @@
         <v>212.9171572481403</v>
       </c>
       <c r="N26" t="n">
-        <v>212.9171572481403</v>
+        <v>212.91715724814</v>
       </c>
       <c r="O26" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="P26" t="n">
-        <v>212.9171572481408</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Q26" t="n">
         <v>212.9171572481403</v>
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
@@ -29372,7 +29372,7 @@
         <v>125.6800758778345</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J27" t="n">
         <v>51.93274503525221</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.3633376148752</v>
       </c>
       <c r="S27" t="n">
         <v>191.4841495043256</v>
@@ -29408,19 +29408,19 @@
         <v>212.9171572481403</v>
       </c>
       <c r="U27" t="n">
-        <v>212.9171572481403</v>
+        <v>187.2968934474312</v>
       </c>
       <c r="V27" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="Y27" t="n">
-        <v>39.15831839022155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29433,13 +29433,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>166.4571809719723</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="F28" t="n">
         <v>138.9268822184467</v>
@@ -29454,10 +29454,10 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J28" t="n">
-        <v>119.8993073508208</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="K28" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176845</v>
       </c>
       <c r="L28" t="n">
         <v>31.43620997383525</v>
@@ -29466,19 +29466,19 @@
         <v>24.46235891800148</v>
       </c>
       <c r="N28" t="n">
-        <v>15.78359136610009</v>
+        <v>15.78359136610008</v>
       </c>
       <c r="O28" t="n">
-        <v>36.79854607717665</v>
+        <v>62.59822076872315</v>
       </c>
       <c r="P28" t="n">
-        <v>212.9171572481403</v>
+        <v>57.89645227716781</v>
       </c>
       <c r="Q28" t="n">
-        <v>198.6081302329885</v>
+        <v>126.8139378168763</v>
       </c>
       <c r="R28" t="n">
-        <v>212.9171572481403</v>
+        <v>203.2135377342752</v>
       </c>
       <c r="S28" t="n">
         <v>212.9171572481403</v>
@@ -29594,10 +29594,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -29606,10 +29606,10 @@
         <v>148.7388631915159</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.6800758778345</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,19 +29636,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3633376148752</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>179.0575236128565</v>
+        <v>191.4841495043256</v>
       </c>
       <c r="T30" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="U30" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>212.9171572481403</v>
@@ -29657,7 +29657,7 @@
         <v>212.9171572481403</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.9171572481403</v>
+        <v>196.842481699893</v>
       </c>
     </row>
     <row r="31">
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>177.6169206649681</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
@@ -29682,7 +29682,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.6959616282545</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="H31" t="n">
         <v>165.7816030517371</v>
@@ -29691,10 +29691,10 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J31" t="n">
+        <v>119.8993073508207</v>
+      </c>
+      <c r="K31" t="n">
         <v>212.9171572481403</v>
-      </c>
-      <c r="K31" t="n">
-        <v>209.9714293253987</v>
       </c>
       <c r="L31" t="n">
         <v>31.43620997383525</v>
@@ -29703,7 +29703,7 @@
         <v>24.46235891800148</v>
       </c>
       <c r="N31" t="n">
-        <v>15.78359136610009</v>
+        <v>15.78359136610008</v>
       </c>
       <c r="O31" t="n">
         <v>36.79854607717665</v>
@@ -29712,7 +29712,7 @@
         <v>57.89645227716781</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.8139378168763</v>
+        <v>137.3646275883957</v>
       </c>
       <c r="R31" t="n">
         <v>203.2135377342752</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29849,7 +29849,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J33" t="n">
-        <v>21.38955867667718</v>
+        <v>51.93274503525221</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29879,22 +29879,22 @@
         <v>191.4841495043256</v>
       </c>
       <c r="T33" t="n">
-        <v>212.9171572481403</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="V33" t="n">
+        <v>146.2073080390907</v>
+      </c>
+      <c r="W33" t="n">
         <v>212.9171572481403</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>212.9171572481403</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>212.9171572481403</v>
       </c>
     </row>
     <row r="34">
@@ -29910,10 +29910,10 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>212.9171572481403</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>212.9171572481403</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
@@ -29922,16 +29922,16 @@
         <v>168.6959616282545</v>
       </c>
       <c r="H34" t="n">
-        <v>165.7816030517371</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="I34" t="n">
-        <v>164.7082190429235</v>
+        <v>207.6447868210984</v>
       </c>
       <c r="J34" t="n">
-        <v>131.3390817871617</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K34" t="n">
-        <v>66.47076232176846</v>
+        <v>212.9171572481403</v>
       </c>
       <c r="L34" t="n">
         <v>31.43620997383525</v>
@@ -29940,7 +29940,7 @@
         <v>24.46235891800148</v>
       </c>
       <c r="N34" t="n">
-        <v>15.78359136610009</v>
+        <v>15.78359136610008</v>
       </c>
       <c r="O34" t="n">
         <v>36.79854607717665</v>
@@ -29949,7 +29949,7 @@
         <v>57.89645227716781</v>
       </c>
       <c r="Q34" t="n">
-        <v>212.9171572481403</v>
+        <v>126.8139378168763</v>
       </c>
       <c r="R34" t="n">
         <v>203.2135377342752</v>
@@ -30016,22 +30016,22 @@
         <v>248.0932339118651</v>
       </c>
       <c r="M35" t="n">
-        <v>90.313941808999</v>
+        <v>245.3274290416893</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>13.54892393491817</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>127.7469850778389</v>
+      </c>
+      <c r="R35" t="n">
         <v>248.0932339118651</v>
-      </c>
-      <c r="P35" t="n">
-        <v>13.54892393491818</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>88.55297193870592</v>
-      </c>
-      <c r="R35" t="n">
-        <v>194.2075003718243</v>
       </c>
       <c r="S35" t="n">
         <v>248.0932339118651</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -30071,10 +30071,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7388631915159</v>
@@ -30083,10 +30083,10 @@
         <v>125.6800758778345</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>51.93274503525221</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30113,7 +30113,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>83.2800234948479</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.9477822055827</v>
@@ -30125,13 +30125,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>248.0932339118651</v>
+        <v>241.7585429697029</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30144,7 +30144,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
-        <v>248.0932339118651</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
         <v>145.1826502507107</v>
@@ -30153,7 +30153,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>141.7521431144834</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
         <v>168.6959616282545</v>
@@ -30162,13 +30162,13 @@
         <v>165.7816030517371</v>
       </c>
       <c r="I37" t="n">
-        <v>164.7082190429235</v>
+        <v>222.9957543752303</v>
       </c>
       <c r="J37" t="n">
-        <v>119.8993073508208</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K37" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176845</v>
       </c>
       <c r="L37" t="n">
         <v>31.43620997383525</v>
@@ -30177,7 +30177,7 @@
         <v>24.46235891800148</v>
       </c>
       <c r="N37" t="n">
-        <v>15.78359136610009</v>
+        <v>15.78359136610008</v>
       </c>
       <c r="O37" t="n">
         <v>36.79854607717665</v>
@@ -30207,7 +30207,7 @@
         <v>248.0932339118651</v>
       </c>
       <c r="X37" t="n">
-        <v>221.9194554082425</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="Y37" t="n">
         <v>217.1412728141684</v>
@@ -30241,28 +30241,28 @@
         <v>248.0932339118651</v>
       </c>
       <c r="I38" t="n">
-        <v>240.5960845356529</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="J38" t="n">
-        <v>135.2441344540518</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="K38" t="n">
         <v>248.0932339118651</v>
       </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>248.0932339118651</v>
       </c>
-      <c r="M38" t="n">
-        <v>245.3274290416894</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
       <c r="P38" t="n">
-        <v>13.54892393491818</v>
+        <v>138.5301041425813</v>
       </c>
       <c r="Q38" t="n">
         <v>248.0932339118651</v>
@@ -30302,16 +30302,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7388631915159</v>
@@ -30344,10 +30344,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.136586121265594</v>
       </c>
       <c r="R39" t="n">
-        <v>134.3633376148752</v>
+        <v>84.70022738591651</v>
       </c>
       <c r="S39" t="n">
         <v>191.4841495043256</v>
@@ -30359,16 +30359,16 @@
         <v>237.2276917808945</v>
       </c>
       <c r="V39" t="n">
-        <v>185.6734398830204</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>248.0932339118651</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30381,10 +30381,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>166.4571809719723</v>
+        <v>248.0932339118651</v>
       </c>
       <c r="D40" t="n">
-        <v>198.6920029889435</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
         <v>141.676141212225</v>
@@ -30396,16 +30396,16 @@
         <v>168.6959616282545</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7816030517371</v>
+        <v>168.6068639477738</v>
       </c>
       <c r="I40" t="n">
         <v>164.7082190429235</v>
       </c>
       <c r="J40" t="n">
-        <v>119.8993073508208</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K40" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176845</v>
       </c>
       <c r="L40" t="n">
         <v>31.43620997383525</v>
@@ -30414,7 +30414,7 @@
         <v>24.46235891800148</v>
       </c>
       <c r="N40" t="n">
-        <v>15.78359136610009</v>
+        <v>15.78359136610008</v>
       </c>
       <c r="O40" t="n">
         <v>36.79854607717665</v>
@@ -30447,7 +30447,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
-        <v>248.0932339118651</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="41">
@@ -30487,19 +30487,19 @@
         <v>240.5960845356529</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>49.70367713529478</v>
       </c>
       <c r="M41" t="n">
-        <v>36.15475320037622</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>240.5960845356529</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="P41" t="n">
-        <v>13.54892393491818</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="Q41" t="n">
         <v>240.5960845356529</v>
@@ -30539,13 +30539,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>129.6000440102904</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -30557,10 +30557,10 @@
         <v>125.6800758778345</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.1657389737211</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>51.93274503525221</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30596,16 +30596,16 @@
         <v>237.2276917808945</v>
       </c>
       <c r="V42" t="n">
-        <v>240.5960845356529</v>
+        <v>133.2768066697221</v>
       </c>
       <c r="W42" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30615,16 +30615,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.0615963516573</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="C43" t="n">
-        <v>166.4571809719723</v>
+        <v>207.8426361114048</v>
       </c>
       <c r="D43" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>240.5960845356529</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
         <v>138.9268822184467</v>
@@ -30639,10 +30639,10 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J43" t="n">
-        <v>119.8993073508208</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K43" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176845</v>
       </c>
       <c r="L43" t="n">
         <v>31.43620997383525</v>
@@ -30651,7 +30651,7 @@
         <v>24.46235891800148</v>
       </c>
       <c r="N43" t="n">
-        <v>15.78359136610009</v>
+        <v>15.78359136610008</v>
       </c>
       <c r="O43" t="n">
         <v>36.79854607717665</v>
@@ -30721,19 +30721,19 @@
         <v>240.5960845356529</v>
       </c>
       <c r="K44" t="n">
-        <v>81.20446222232697</v>
+        <v>49.70367713529476</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="N44" t="n">
-        <v>240.5960845356529</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>240.5960845356529</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>240.5960845356529</v>
@@ -30745,10 +30745,10 @@
         <v>240.5960845356529</v>
       </c>
       <c r="S44" t="n">
-        <v>227.2724750164867</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4189089677869</v>
+        <v>240.5960845356529</v>
       </c>
       <c r="U44" t="n">
         <v>240.5960845356529</v>
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -30788,7 +30788,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7388631915159</v>
       </c>
       <c r="H45" t="n">
         <v>125.6800758778345</v>
@@ -30797,7 +30797,7 @@
         <v>107.1657389737211</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>51.93274503525221</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.136586121265594</v>
       </c>
       <c r="R45" t="n">
         <v>134.3633376148752</v>
@@ -30827,10 +30827,10 @@
         <v>191.4841495043256</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9477822055827</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276917808945</v>
+        <v>147.0549978898804</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30842,7 +30842,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>154.8327882649365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30876,10 +30876,10 @@
         <v>164.7082190429235</v>
       </c>
       <c r="J46" t="n">
-        <v>119.8993073508208</v>
+        <v>119.8993073508207</v>
       </c>
       <c r="K46" t="n">
-        <v>66.47076232176846</v>
+        <v>66.47076232176845</v>
       </c>
       <c r="L46" t="n">
         <v>31.43620997383525</v>
@@ -30888,7 +30888,7 @@
         <v>24.46235891800148</v>
       </c>
       <c r="N46" t="n">
-        <v>77.52374073275395</v>
+        <v>15.78359136610008</v>
       </c>
       <c r="O46" t="n">
         <v>36.79854607717665</v>
@@ -30897,16 +30897,16 @@
         <v>57.89645227716781</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.8139378168763</v>
+        <v>176.9409180268127</v>
       </c>
       <c r="R46" t="n">
         <v>240.5960845356529</v>
       </c>
       <c r="S46" t="n">
+        <v>235.3541616935673</v>
+      </c>
+      <c r="T46" t="n">
         <v>240.5960845356529</v>
-      </c>
-      <c r="T46" t="n">
-        <v>223.7409925368497</v>
       </c>
       <c r="U46" t="n">
         <v>240.5960845356529</v>
@@ -31759,22 +31759,22 @@
         <v>16.09372401483339</v>
       </c>
       <c r="J11" t="n">
-        <v>35.43050926928125</v>
+        <v>35.43050926928126</v>
       </c>
       <c r="K11" t="n">
-        <v>53.10114898260457</v>
+        <v>53.10114898260458</v>
       </c>
       <c r="L11" t="n">
-        <v>65.87667083771014</v>
+        <v>65.87667083771015</v>
       </c>
       <c r="M11" t="n">
         <v>73.30048938252028</v>
       </c>
       <c r="N11" t="n">
-        <v>74.48656793403174</v>
+        <v>74.48656793403175</v>
       </c>
       <c r="O11" t="n">
-        <v>70.33555390971426</v>
+        <v>70.33555390971428</v>
       </c>
       <c r="P11" t="n">
         <v>60.02976799138992</v>
@@ -31786,7 +31786,7 @@
         <v>26.22261568372422</v>
       </c>
       <c r="S11" t="n">
-        <v>9.512631761572296</v>
+        <v>9.512631761572298</v>
       </c>
       <c r="T11" t="n">
         <v>1.827385432201106</v>
@@ -31835,25 +31835,25 @@
         <v>2.157141045062284</v>
       </c>
       <c r="I12" t="n">
-        <v>7.690080473995881</v>
+        <v>7.690080473995882</v>
       </c>
       <c r="J12" t="n">
-        <v>21.10216859749621</v>
+        <v>21.10216859749622</v>
       </c>
       <c r="K12" t="n">
         <v>36.06696723708361</v>
       </c>
       <c r="L12" t="n">
-        <v>48.49648839046701</v>
+        <v>48.49648839046702</v>
       </c>
       <c r="M12" t="n">
-        <v>56.59311452009451</v>
+        <v>56.59311452009452</v>
       </c>
       <c r="N12" t="n">
-        <v>58.09096586337346</v>
+        <v>58.09096586337347</v>
       </c>
       <c r="O12" t="n">
-        <v>53.14188477361203</v>
+        <v>53.14188477361204</v>
       </c>
       <c r="P12" t="n">
         <v>42.65104760214429</v>
@@ -31865,10 +31865,10 @@
         <v>13.86761518342493</v>
       </c>
       <c r="S12" t="n">
-        <v>4.148724943614335</v>
+        <v>4.148724943614336</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9002782109047403</v>
+        <v>0.9002782109047404</v>
       </c>
       <c r="U12" t="n">
         <v>0.01469442128789022</v>
@@ -31911,10 +31911,10 @@
         <v>0.1872534996904917</v>
       </c>
       <c r="H13" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702737</v>
       </c>
       <c r="I13" t="n">
-        <v>5.631223427055879</v>
+        <v>5.63122342705588</v>
       </c>
       <c r="J13" t="n">
         <v>13.23882242811776</v>
@@ -31947,10 +31947,10 @@
         <v>3.263317808242477</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8000831350411916</v>
+        <v>0.8000831350411917</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,22 +31996,22 @@
         <v>16.09372401483339</v>
       </c>
       <c r="J14" t="n">
-        <v>35.43050926928125</v>
+        <v>35.43050926928126</v>
       </c>
       <c r="K14" t="n">
-        <v>53.10114898260457</v>
+        <v>53.10114898260458</v>
       </c>
       <c r="L14" t="n">
-        <v>65.87667083771014</v>
+        <v>65.87667083771015</v>
       </c>
       <c r="M14" t="n">
         <v>73.30048938252028</v>
       </c>
       <c r="N14" t="n">
-        <v>74.48656793403174</v>
+        <v>74.48656793403175</v>
       </c>
       <c r="O14" t="n">
-        <v>70.33555390971426</v>
+        <v>70.33555390971428</v>
       </c>
       <c r="P14" t="n">
         <v>60.02976799138992</v>
@@ -32023,7 +32023,7 @@
         <v>26.22261568372422</v>
       </c>
       <c r="S14" t="n">
-        <v>9.512631761572296</v>
+        <v>9.512631761572298</v>
       </c>
       <c r="T14" t="n">
         <v>1.827385432201106</v>
@@ -32072,25 +32072,25 @@
         <v>2.157141045062284</v>
       </c>
       <c r="I15" t="n">
-        <v>7.690080473995881</v>
+        <v>7.690080473995882</v>
       </c>
       <c r="J15" t="n">
-        <v>21.10216859749621</v>
+        <v>21.10216859749622</v>
       </c>
       <c r="K15" t="n">
         <v>36.06696723708361</v>
       </c>
       <c r="L15" t="n">
-        <v>48.49648839046701</v>
+        <v>48.49648839046702</v>
       </c>
       <c r="M15" t="n">
-        <v>56.59311452009451</v>
+        <v>56.59311452009452</v>
       </c>
       <c r="N15" t="n">
-        <v>58.09096586337346</v>
+        <v>58.09096586337347</v>
       </c>
       <c r="O15" t="n">
-        <v>53.14188477361203</v>
+        <v>53.14188477361204</v>
       </c>
       <c r="P15" t="n">
         <v>42.65104760214429</v>
@@ -32102,10 +32102,10 @@
         <v>13.86761518342493</v>
       </c>
       <c r="S15" t="n">
-        <v>4.148724943614335</v>
+        <v>4.148724943614336</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9002782109047403</v>
+        <v>0.9002782109047404</v>
       </c>
       <c r="U15" t="n">
         <v>0.01469442128789022</v>
@@ -32148,10 +32148,10 @@
         <v>0.1872534996904917</v>
       </c>
       <c r="H16" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702737</v>
       </c>
       <c r="I16" t="n">
-        <v>5.631223427055879</v>
+        <v>5.63122342705588</v>
       </c>
       <c r="J16" t="n">
         <v>13.23882242811776</v>
@@ -32184,10 +32184,10 @@
         <v>3.263317808242477</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8000831350411916</v>
+        <v>0.8000831350411917</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32233,22 +32233,22 @@
         <v>16.09372401483339</v>
       </c>
       <c r="J17" t="n">
-        <v>35.43050926928125</v>
+        <v>35.43050926928126</v>
       </c>
       <c r="K17" t="n">
-        <v>53.10114898260457</v>
+        <v>53.10114898260458</v>
       </c>
       <c r="L17" t="n">
-        <v>65.87667083771014</v>
+        <v>65.87667083771015</v>
       </c>
       <c r="M17" t="n">
         <v>73.30048938252028</v>
       </c>
       <c r="N17" t="n">
-        <v>74.48656793403174</v>
+        <v>74.48656793403175</v>
       </c>
       <c r="O17" t="n">
-        <v>70.33555390971426</v>
+        <v>70.33555390971428</v>
       </c>
       <c r="P17" t="n">
         <v>60.02976799138992</v>
@@ -32260,7 +32260,7 @@
         <v>26.22261568372422</v>
       </c>
       <c r="S17" t="n">
-        <v>9.512631761572296</v>
+        <v>9.512631761572298</v>
       </c>
       <c r="T17" t="n">
         <v>1.827385432201106</v>
@@ -32309,25 +32309,25 @@
         <v>2.157141045062284</v>
       </c>
       <c r="I18" t="n">
-        <v>7.690080473995881</v>
+        <v>7.690080473995882</v>
       </c>
       <c r="J18" t="n">
-        <v>21.10216859749621</v>
+        <v>21.10216859749622</v>
       </c>
       <c r="K18" t="n">
         <v>36.06696723708361</v>
       </c>
       <c r="L18" t="n">
-        <v>48.49648839046701</v>
+        <v>48.49648839046702</v>
       </c>
       <c r="M18" t="n">
-        <v>56.59311452009451</v>
+        <v>56.59311452009452</v>
       </c>
       <c r="N18" t="n">
-        <v>58.09096586337346</v>
+        <v>58.09096586337347</v>
       </c>
       <c r="O18" t="n">
-        <v>53.14188477361203</v>
+        <v>53.14188477361204</v>
       </c>
       <c r="P18" t="n">
         <v>42.65104760214429</v>
@@ -32339,10 +32339,10 @@
         <v>13.86761518342493</v>
       </c>
       <c r="S18" t="n">
-        <v>4.148724943614335</v>
+        <v>4.148724943614336</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9002782109047403</v>
+        <v>0.9002782109047404</v>
       </c>
       <c r="U18" t="n">
         <v>0.01469442128789022</v>
@@ -32385,10 +32385,10 @@
         <v>0.1872534996904917</v>
       </c>
       <c r="H19" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702737</v>
       </c>
       <c r="I19" t="n">
-        <v>5.631223427055879</v>
+        <v>5.63122342705588</v>
       </c>
       <c r="J19" t="n">
         <v>13.23882242811776</v>
@@ -32421,10 +32421,10 @@
         <v>3.263317808242477</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8000831350411916</v>
+        <v>0.8000831350411917</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32470,22 +32470,22 @@
         <v>16.09372401483339</v>
       </c>
       <c r="J20" t="n">
-        <v>35.43050926928125</v>
+        <v>35.43050926928126</v>
       </c>
       <c r="K20" t="n">
-        <v>53.10114898260457</v>
+        <v>53.10114898260458</v>
       </c>
       <c r="L20" t="n">
-        <v>65.87667083771014</v>
+        <v>65.87667083771015</v>
       </c>
       <c r="M20" t="n">
         <v>73.30048938252028</v>
       </c>
       <c r="N20" t="n">
-        <v>74.48656793403174</v>
+        <v>74.48656793403175</v>
       </c>
       <c r="O20" t="n">
-        <v>70.33555390971426</v>
+        <v>70.33555390971428</v>
       </c>
       <c r="P20" t="n">
         <v>60.02976799138992</v>
@@ -32497,7 +32497,7 @@
         <v>26.22261568372422</v>
       </c>
       <c r="S20" t="n">
-        <v>9.512631761572296</v>
+        <v>9.512631761572298</v>
       </c>
       <c r="T20" t="n">
         <v>1.827385432201106</v>
@@ -32546,25 +32546,25 @@
         <v>2.157141045062284</v>
       </c>
       <c r="I21" t="n">
-        <v>7.690080473995881</v>
+        <v>7.690080473995882</v>
       </c>
       <c r="J21" t="n">
-        <v>21.10216859749621</v>
+        <v>21.10216859749622</v>
       </c>
       <c r="K21" t="n">
         <v>36.06696723708361</v>
       </c>
       <c r="L21" t="n">
-        <v>48.49648839046701</v>
+        <v>48.49648839046702</v>
       </c>
       <c r="M21" t="n">
-        <v>56.59311452009451</v>
+        <v>56.59311452009452</v>
       </c>
       <c r="N21" t="n">
-        <v>58.09096586337346</v>
+        <v>58.09096586337347</v>
       </c>
       <c r="O21" t="n">
-        <v>53.14188477361203</v>
+        <v>53.14188477361204</v>
       </c>
       <c r="P21" t="n">
         <v>42.65104760214429</v>
@@ -32576,10 +32576,10 @@
         <v>13.86761518342493</v>
       </c>
       <c r="S21" t="n">
-        <v>4.148724943614335</v>
+        <v>4.148724943614336</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9002782109047403</v>
+        <v>0.9002782109047404</v>
       </c>
       <c r="U21" t="n">
         <v>0.01469442128789022</v>
@@ -32622,10 +32622,10 @@
         <v>0.1872534996904917</v>
       </c>
       <c r="H22" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702737</v>
       </c>
       <c r="I22" t="n">
-        <v>5.631223427055879</v>
+        <v>5.63122342705588</v>
       </c>
       <c r="J22" t="n">
         <v>13.23882242811776</v>
@@ -32658,10 +32658,10 @@
         <v>3.263317808242477</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8000831350411916</v>
+        <v>0.8000831350411917</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32707,22 +32707,22 @@
         <v>16.09372401483339</v>
       </c>
       <c r="J23" t="n">
-        <v>35.43050926928125</v>
+        <v>35.43050926928126</v>
       </c>
       <c r="K23" t="n">
-        <v>53.10114898260457</v>
+        <v>53.10114898260458</v>
       </c>
       <c r="L23" t="n">
-        <v>65.87667083771014</v>
+        <v>65.87667083771015</v>
       </c>
       <c r="M23" t="n">
         <v>73.30048938252028</v>
       </c>
       <c r="N23" t="n">
-        <v>74.48656793403174</v>
+        <v>74.48656793403175</v>
       </c>
       <c r="O23" t="n">
-        <v>70.33555390971426</v>
+        <v>70.33555390971428</v>
       </c>
       <c r="P23" t="n">
         <v>60.02976799138992</v>
@@ -32734,7 +32734,7 @@
         <v>26.22261568372422</v>
       </c>
       <c r="S23" t="n">
-        <v>9.512631761572296</v>
+        <v>9.512631761572298</v>
       </c>
       <c r="T23" t="n">
         <v>1.827385432201106</v>
@@ -32783,25 +32783,25 @@
         <v>2.157141045062284</v>
       </c>
       <c r="I24" t="n">
-        <v>7.690080473995881</v>
+        <v>7.690080473995882</v>
       </c>
       <c r="J24" t="n">
-        <v>21.10216859749621</v>
+        <v>21.10216859749622</v>
       </c>
       <c r="K24" t="n">
         <v>36.06696723708361</v>
       </c>
       <c r="L24" t="n">
-        <v>48.49648839046701</v>
+        <v>48.49648839046702</v>
       </c>
       <c r="M24" t="n">
-        <v>56.59311452009451</v>
+        <v>56.59311452009452</v>
       </c>
       <c r="N24" t="n">
-        <v>58.09096586337346</v>
+        <v>58.09096586337347</v>
       </c>
       <c r="O24" t="n">
-        <v>53.14188477361203</v>
+        <v>53.14188477361204</v>
       </c>
       <c r="P24" t="n">
         <v>42.65104760214429</v>
@@ -32813,10 +32813,10 @@
         <v>13.86761518342493</v>
       </c>
       <c r="S24" t="n">
-        <v>4.148724943614335</v>
+        <v>4.148724943614336</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9002782109047403</v>
+        <v>0.9002782109047404</v>
       </c>
       <c r="U24" t="n">
         <v>0.01469442128789022</v>
@@ -32859,10 +32859,10 @@
         <v>0.1872534996904917</v>
       </c>
       <c r="H25" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702737</v>
       </c>
       <c r="I25" t="n">
-        <v>5.631223427055879</v>
+        <v>5.63122342705588</v>
       </c>
       <c r="J25" t="n">
         <v>13.23882242811776</v>
@@ -32895,10 +32895,10 @@
         <v>3.263317808242477</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8000831350411916</v>
+        <v>0.8000831350411917</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32944,22 +32944,22 @@
         <v>16.09372401483339</v>
       </c>
       <c r="J26" t="n">
-        <v>35.43050926928125</v>
+        <v>35.43050926928126</v>
       </c>
       <c r="K26" t="n">
-        <v>53.10114898260457</v>
+        <v>53.10114898260458</v>
       </c>
       <c r="L26" t="n">
-        <v>65.87667083771014</v>
+        <v>65.87667083771015</v>
       </c>
       <c r="M26" t="n">
         <v>73.30048938252028</v>
       </c>
       <c r="N26" t="n">
-        <v>74.48656793403174</v>
+        <v>74.48656793403175</v>
       </c>
       <c r="O26" t="n">
-        <v>70.33555390971426</v>
+        <v>70.33555390971428</v>
       </c>
       <c r="P26" t="n">
         <v>60.02976799138992</v>
@@ -32971,7 +32971,7 @@
         <v>26.22261568372422</v>
       </c>
       <c r="S26" t="n">
-        <v>9.512631761572296</v>
+        <v>9.512631761572298</v>
       </c>
       <c r="T26" t="n">
         <v>1.827385432201106</v>
@@ -33020,25 +33020,25 @@
         <v>2.157141045062284</v>
       </c>
       <c r="I27" t="n">
-        <v>7.690080473995881</v>
+        <v>7.690080473995882</v>
       </c>
       <c r="J27" t="n">
-        <v>21.10216859749621</v>
+        <v>21.10216859749622</v>
       </c>
       <c r="K27" t="n">
         <v>36.06696723708361</v>
       </c>
       <c r="L27" t="n">
-        <v>48.49648839046701</v>
+        <v>48.49648839046702</v>
       </c>
       <c r="M27" t="n">
-        <v>56.59311452009451</v>
+        <v>56.59311452009452</v>
       </c>
       <c r="N27" t="n">
-        <v>58.09096586337346</v>
+        <v>58.09096586337347</v>
       </c>
       <c r="O27" t="n">
-        <v>53.14188477361203</v>
+        <v>53.14188477361204</v>
       </c>
       <c r="P27" t="n">
         <v>42.65104760214429</v>
@@ -33050,10 +33050,10 @@
         <v>13.86761518342493</v>
       </c>
       <c r="S27" t="n">
-        <v>4.148724943614335</v>
+        <v>4.148724943614336</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9002782109047403</v>
+        <v>0.9002782109047404</v>
       </c>
       <c r="U27" t="n">
         <v>0.01469442128789022</v>
@@ -33096,10 +33096,10 @@
         <v>0.1872534996904917</v>
       </c>
       <c r="H28" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702737</v>
       </c>
       <c r="I28" t="n">
-        <v>5.631223427055879</v>
+        <v>5.63122342705588</v>
       </c>
       <c r="J28" t="n">
         <v>13.23882242811776</v>
@@ -33132,10 +33132,10 @@
         <v>3.263317808242477</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8000831350411916</v>
+        <v>0.8000831350411917</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33181,22 +33181,22 @@
         <v>16.09372401483339</v>
       </c>
       <c r="J29" t="n">
-        <v>35.43050926928125</v>
+        <v>35.43050926928126</v>
       </c>
       <c r="K29" t="n">
-        <v>53.10114898260457</v>
+        <v>53.10114898260458</v>
       </c>
       <c r="L29" t="n">
-        <v>65.87667083771014</v>
+        <v>65.87667083771015</v>
       </c>
       <c r="M29" t="n">
         <v>73.30048938252028</v>
       </c>
       <c r="N29" t="n">
-        <v>74.48656793403174</v>
+        <v>74.48656793403175</v>
       </c>
       <c r="O29" t="n">
-        <v>70.33555390971426</v>
+        <v>70.33555390971428</v>
       </c>
       <c r="P29" t="n">
         <v>60.02976799138992</v>
@@ -33208,7 +33208,7 @@
         <v>26.22261568372422</v>
       </c>
       <c r="S29" t="n">
-        <v>9.512631761572296</v>
+        <v>9.512631761572298</v>
       </c>
       <c r="T29" t="n">
         <v>1.827385432201106</v>
@@ -33257,25 +33257,25 @@
         <v>2.157141045062284</v>
       </c>
       <c r="I30" t="n">
-        <v>7.690080473995881</v>
+        <v>7.690080473995882</v>
       </c>
       <c r="J30" t="n">
-        <v>21.10216859749621</v>
+        <v>21.10216859749622</v>
       </c>
       <c r="K30" t="n">
         <v>36.06696723708361</v>
       </c>
       <c r="L30" t="n">
-        <v>48.49648839046701</v>
+        <v>48.49648839046702</v>
       </c>
       <c r="M30" t="n">
-        <v>56.59311452009451</v>
+        <v>56.59311452009452</v>
       </c>
       <c r="N30" t="n">
-        <v>58.09096586337346</v>
+        <v>58.09096586337347</v>
       </c>
       <c r="O30" t="n">
-        <v>53.14188477361203</v>
+        <v>53.14188477361204</v>
       </c>
       <c r="P30" t="n">
         <v>42.65104760214429</v>
@@ -33287,10 +33287,10 @@
         <v>13.86761518342493</v>
       </c>
       <c r="S30" t="n">
-        <v>4.148724943614335</v>
+        <v>4.148724943614336</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9002782109047403</v>
+        <v>0.9002782109047404</v>
       </c>
       <c r="U30" t="n">
         <v>0.01469442128789022</v>
@@ -33333,10 +33333,10 @@
         <v>0.1872534996904917</v>
       </c>
       <c r="H31" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702737</v>
       </c>
       <c r="I31" t="n">
-        <v>5.631223427055879</v>
+        <v>5.63122342705588</v>
       </c>
       <c r="J31" t="n">
         <v>13.23882242811776</v>
@@ -33369,10 +33369,10 @@
         <v>3.263317808242477</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8000831350411916</v>
+        <v>0.8000831350411917</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33418,22 +33418,22 @@
         <v>16.09372401483339</v>
       </c>
       <c r="J32" t="n">
-        <v>35.43050926928125</v>
+        <v>35.43050926928126</v>
       </c>
       <c r="K32" t="n">
-        <v>53.10114898260457</v>
+        <v>53.10114898260458</v>
       </c>
       <c r="L32" t="n">
-        <v>65.87667083771014</v>
+        <v>65.87667083771015</v>
       </c>
       <c r="M32" t="n">
         <v>73.30048938252028</v>
       </c>
       <c r="N32" t="n">
-        <v>74.48656793403174</v>
+        <v>74.48656793403175</v>
       </c>
       <c r="O32" t="n">
-        <v>70.33555390971426</v>
+        <v>70.33555390971428</v>
       </c>
       <c r="P32" t="n">
         <v>60.02976799138992</v>
@@ -33445,7 +33445,7 @@
         <v>26.22261568372422</v>
       </c>
       <c r="S32" t="n">
-        <v>9.512631761572296</v>
+        <v>9.512631761572298</v>
       </c>
       <c r="T32" t="n">
         <v>1.827385432201106</v>
@@ -33494,25 +33494,25 @@
         <v>2.157141045062284</v>
       </c>
       <c r="I33" t="n">
-        <v>7.690080473995881</v>
+        <v>7.690080473995882</v>
       </c>
       <c r="J33" t="n">
-        <v>21.10216859749621</v>
+        <v>21.10216859749622</v>
       </c>
       <c r="K33" t="n">
         <v>36.06696723708361</v>
       </c>
       <c r="L33" t="n">
-        <v>48.49648839046701</v>
+        <v>48.49648839046702</v>
       </c>
       <c r="M33" t="n">
-        <v>56.59311452009451</v>
+        <v>56.59311452009452</v>
       </c>
       <c r="N33" t="n">
-        <v>58.09096586337346</v>
+        <v>58.09096586337347</v>
       </c>
       <c r="O33" t="n">
-        <v>53.14188477361203</v>
+        <v>53.14188477361204</v>
       </c>
       <c r="P33" t="n">
         <v>42.65104760214429</v>
@@ -33524,10 +33524,10 @@
         <v>13.86761518342493</v>
       </c>
       <c r="S33" t="n">
-        <v>4.148724943614335</v>
+        <v>4.148724943614336</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9002782109047403</v>
+        <v>0.9002782109047404</v>
       </c>
       <c r="U33" t="n">
         <v>0.01469442128789022</v>
@@ -33570,10 +33570,10 @@
         <v>0.1872534996904917</v>
       </c>
       <c r="H34" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702737</v>
       </c>
       <c r="I34" t="n">
-        <v>5.631223427055879</v>
+        <v>5.63122342705588</v>
       </c>
       <c r="J34" t="n">
         <v>13.23882242811776</v>
@@ -33606,10 +33606,10 @@
         <v>3.263317808242477</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8000831350411916</v>
+        <v>0.8000831350411917</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33655,22 +33655,22 @@
         <v>16.09372401483339</v>
       </c>
       <c r="J35" t="n">
-        <v>35.43050926928125</v>
+        <v>35.43050926928126</v>
       </c>
       <c r="K35" t="n">
-        <v>53.10114898260457</v>
+        <v>53.10114898260458</v>
       </c>
       <c r="L35" t="n">
-        <v>65.87667083771014</v>
+        <v>65.87667083771015</v>
       </c>
       <c r="M35" t="n">
         <v>73.30048938252028</v>
       </c>
       <c r="N35" t="n">
-        <v>74.48656793403174</v>
+        <v>74.48656793403175</v>
       </c>
       <c r="O35" t="n">
-        <v>70.33555390971426</v>
+        <v>70.33555390971428</v>
       </c>
       <c r="P35" t="n">
         <v>60.02976799138992</v>
@@ -33682,7 +33682,7 @@
         <v>26.22261568372422</v>
       </c>
       <c r="S35" t="n">
-        <v>9.512631761572296</v>
+        <v>9.512631761572298</v>
       </c>
       <c r="T35" t="n">
         <v>1.827385432201106</v>
@@ -33731,25 +33731,25 @@
         <v>2.157141045062284</v>
       </c>
       <c r="I36" t="n">
-        <v>7.690080473995881</v>
+        <v>7.690080473995882</v>
       </c>
       <c r="J36" t="n">
-        <v>21.10216859749621</v>
+        <v>21.10216859749622</v>
       </c>
       <c r="K36" t="n">
         <v>36.06696723708361</v>
       </c>
       <c r="L36" t="n">
-        <v>48.49648839046701</v>
+        <v>48.49648839046702</v>
       </c>
       <c r="M36" t="n">
-        <v>56.59311452009451</v>
+        <v>56.59311452009452</v>
       </c>
       <c r="N36" t="n">
-        <v>58.09096586337346</v>
+        <v>58.09096586337347</v>
       </c>
       <c r="O36" t="n">
-        <v>53.14188477361203</v>
+        <v>53.14188477361204</v>
       </c>
       <c r="P36" t="n">
         <v>42.65104760214429</v>
@@ -33761,10 +33761,10 @@
         <v>13.86761518342493</v>
       </c>
       <c r="S36" t="n">
-        <v>4.148724943614335</v>
+        <v>4.148724943614336</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9002782109047403</v>
+        <v>0.9002782109047404</v>
       </c>
       <c r="U36" t="n">
         <v>0.01469442128789022</v>
@@ -33807,10 +33807,10 @@
         <v>0.1872534996904917</v>
       </c>
       <c r="H37" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702737</v>
       </c>
       <c r="I37" t="n">
-        <v>5.631223427055879</v>
+        <v>5.63122342705588</v>
       </c>
       <c r="J37" t="n">
         <v>13.23882242811776</v>
@@ -33843,10 +33843,10 @@
         <v>3.263317808242477</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8000831350411916</v>
+        <v>0.8000831350411917</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33892,22 +33892,22 @@
         <v>16.09372401483339</v>
       </c>
       <c r="J38" t="n">
-        <v>35.43050926928125</v>
+        <v>35.43050926928126</v>
       </c>
       <c r="K38" t="n">
-        <v>53.10114898260457</v>
+        <v>53.10114898260458</v>
       </c>
       <c r="L38" t="n">
-        <v>65.87667083771014</v>
+        <v>65.87667083771015</v>
       </c>
       <c r="M38" t="n">
         <v>73.30048938252028</v>
       </c>
       <c r="N38" t="n">
-        <v>74.48656793403174</v>
+        <v>74.48656793403175</v>
       </c>
       <c r="O38" t="n">
-        <v>70.33555390971426</v>
+        <v>70.33555390971428</v>
       </c>
       <c r="P38" t="n">
         <v>60.02976799138992</v>
@@ -33919,7 +33919,7 @@
         <v>26.22261568372422</v>
       </c>
       <c r="S38" t="n">
-        <v>9.512631761572296</v>
+        <v>9.512631761572298</v>
       </c>
       <c r="T38" t="n">
         <v>1.827385432201106</v>
@@ -33968,25 +33968,25 @@
         <v>2.157141045062284</v>
       </c>
       <c r="I39" t="n">
-        <v>7.690080473995881</v>
+        <v>7.690080473995882</v>
       </c>
       <c r="J39" t="n">
-        <v>21.10216859749621</v>
+        <v>21.10216859749622</v>
       </c>
       <c r="K39" t="n">
         <v>36.06696723708361</v>
       </c>
       <c r="L39" t="n">
-        <v>48.49648839046701</v>
+        <v>48.49648839046702</v>
       </c>
       <c r="M39" t="n">
-        <v>56.59311452009451</v>
+        <v>56.59311452009452</v>
       </c>
       <c r="N39" t="n">
-        <v>58.09096586337346</v>
+        <v>58.09096586337347</v>
       </c>
       <c r="O39" t="n">
-        <v>53.14188477361203</v>
+        <v>53.14188477361204</v>
       </c>
       <c r="P39" t="n">
         <v>42.65104760214429</v>
@@ -33998,10 +33998,10 @@
         <v>13.86761518342493</v>
       </c>
       <c r="S39" t="n">
-        <v>4.148724943614335</v>
+        <v>4.148724943614336</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9002782109047403</v>
+        <v>0.9002782109047404</v>
       </c>
       <c r="U39" t="n">
         <v>0.01469442128789022</v>
@@ -34044,10 +34044,10 @@
         <v>0.1872534996904917</v>
       </c>
       <c r="H40" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702737</v>
       </c>
       <c r="I40" t="n">
-        <v>5.631223427055879</v>
+        <v>5.63122342705588</v>
       </c>
       <c r="J40" t="n">
         <v>13.23882242811776</v>
@@ -34080,10 +34080,10 @@
         <v>3.263317808242477</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8000831350411916</v>
+        <v>0.8000831350411917</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34129,22 +34129,22 @@
         <v>16.09372401483339</v>
       </c>
       <c r="J41" t="n">
-        <v>35.43050926928125</v>
+        <v>35.43050926928126</v>
       </c>
       <c r="K41" t="n">
-        <v>53.10114898260457</v>
+        <v>53.10114898260458</v>
       </c>
       <c r="L41" t="n">
-        <v>65.87667083771014</v>
+        <v>65.87667083771015</v>
       </c>
       <c r="M41" t="n">
         <v>73.30048938252028</v>
       </c>
       <c r="N41" t="n">
-        <v>74.48656793403174</v>
+        <v>74.48656793403175</v>
       </c>
       <c r="O41" t="n">
-        <v>70.33555390971426</v>
+        <v>70.33555390971428</v>
       </c>
       <c r="P41" t="n">
         <v>60.02976799138992</v>
@@ -34156,7 +34156,7 @@
         <v>26.22261568372422</v>
       </c>
       <c r="S41" t="n">
-        <v>9.512631761572296</v>
+        <v>9.512631761572298</v>
       </c>
       <c r="T41" t="n">
         <v>1.827385432201106</v>
@@ -34205,25 +34205,25 @@
         <v>2.157141045062284</v>
       </c>
       <c r="I42" t="n">
-        <v>7.690080473995881</v>
+        <v>7.690080473995882</v>
       </c>
       <c r="J42" t="n">
-        <v>21.10216859749621</v>
+        <v>21.10216859749622</v>
       </c>
       <c r="K42" t="n">
         <v>36.06696723708361</v>
       </c>
       <c r="L42" t="n">
-        <v>48.49648839046701</v>
+        <v>48.49648839046702</v>
       </c>
       <c r="M42" t="n">
-        <v>56.59311452009451</v>
+        <v>56.59311452009452</v>
       </c>
       <c r="N42" t="n">
-        <v>58.09096586337346</v>
+        <v>58.09096586337347</v>
       </c>
       <c r="O42" t="n">
-        <v>53.14188477361203</v>
+        <v>53.14188477361204</v>
       </c>
       <c r="P42" t="n">
         <v>42.65104760214429</v>
@@ -34235,10 +34235,10 @@
         <v>13.86761518342493</v>
       </c>
       <c r="S42" t="n">
-        <v>4.148724943614335</v>
+        <v>4.148724943614336</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9002782109047403</v>
+        <v>0.9002782109047404</v>
       </c>
       <c r="U42" t="n">
         <v>0.01469442128789022</v>
@@ -34281,10 +34281,10 @@
         <v>0.1872534996904917</v>
       </c>
       <c r="H43" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702737</v>
       </c>
       <c r="I43" t="n">
-        <v>5.631223427055879</v>
+        <v>5.63122342705588</v>
       </c>
       <c r="J43" t="n">
         <v>13.23882242811776</v>
@@ -34317,10 +34317,10 @@
         <v>3.263317808242477</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8000831350411916</v>
+        <v>0.8000831350411917</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34366,22 +34366,22 @@
         <v>16.09372401483339</v>
       </c>
       <c r="J44" t="n">
-        <v>35.43050926928125</v>
+        <v>35.43050926928126</v>
       </c>
       <c r="K44" t="n">
-        <v>53.10114898260457</v>
+        <v>53.10114898260458</v>
       </c>
       <c r="L44" t="n">
-        <v>65.87667083771014</v>
+        <v>65.87667083771015</v>
       </c>
       <c r="M44" t="n">
         <v>73.30048938252028</v>
       </c>
       <c r="N44" t="n">
-        <v>74.48656793403174</v>
+        <v>74.48656793403175</v>
       </c>
       <c r="O44" t="n">
-        <v>70.33555390971426</v>
+        <v>70.33555390971428</v>
       </c>
       <c r="P44" t="n">
         <v>60.02976799138992</v>
@@ -34393,7 +34393,7 @@
         <v>26.22261568372422</v>
       </c>
       <c r="S44" t="n">
-        <v>9.512631761572296</v>
+        <v>9.512631761572298</v>
       </c>
       <c r="T44" t="n">
         <v>1.827385432201106</v>
@@ -34442,25 +34442,25 @@
         <v>2.157141045062284</v>
       </c>
       <c r="I45" t="n">
-        <v>7.690080473995881</v>
+        <v>7.690080473995882</v>
       </c>
       <c r="J45" t="n">
-        <v>21.10216859749621</v>
+        <v>21.10216859749622</v>
       </c>
       <c r="K45" t="n">
         <v>36.06696723708361</v>
       </c>
       <c r="L45" t="n">
-        <v>48.49648839046701</v>
+        <v>48.49648839046702</v>
       </c>
       <c r="M45" t="n">
-        <v>56.59311452009451</v>
+        <v>56.59311452009452</v>
       </c>
       <c r="N45" t="n">
-        <v>58.09096586337346</v>
+        <v>58.09096586337347</v>
       </c>
       <c r="O45" t="n">
-        <v>53.14188477361203</v>
+        <v>53.14188477361204</v>
       </c>
       <c r="P45" t="n">
         <v>42.65104760214429</v>
@@ -34472,10 +34472,10 @@
         <v>13.86761518342493</v>
       </c>
       <c r="S45" t="n">
-        <v>4.148724943614335</v>
+        <v>4.148724943614336</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9002782109047403</v>
+        <v>0.9002782109047404</v>
       </c>
       <c r="U45" t="n">
         <v>0.01469442128789022</v>
@@ -34518,10 +34518,10 @@
         <v>0.1872534996904917</v>
       </c>
       <c r="H46" t="n">
-        <v>1.664853842702736</v>
+        <v>1.664853842702737</v>
       </c>
       <c r="I46" t="n">
-        <v>5.631223427055879</v>
+        <v>5.63122342705588</v>
       </c>
       <c r="J46" t="n">
         <v>13.23882242811776</v>
@@ -34554,10 +34554,10 @@
         <v>3.263317808242477</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8000831350411916</v>
+        <v>0.8000831350411917</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01021382725584501</v>
+        <v>0.01021382725584502</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.5115880530826</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>8.385474052610283</v>
       </c>
       <c r="L11" t="n">
-        <v>48.88611160301757</v>
+        <v>48.88611160301758</v>
       </c>
       <c r="M11" t="n">
         <v>83.56285454860304</v>
       </c>
       <c r="N11" t="n">
-        <v>78.00343736515654</v>
+        <v>78.00343736515656</v>
       </c>
       <c r="O11" t="n">
-        <v>36.37425343351543</v>
+        <v>36.37425343351545</v>
       </c>
       <c r="P11" t="n">
-        <v>11.92318427313124</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="Q11" t="n">
-        <v>105.8295037361489</v>
+        <v>105.8295037361487</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1749753030304824</v>
+        <v>0.174975303030287</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>119.7646888156621</v>
+        <v>31.55186885953232</v>
       </c>
       <c r="M12" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="N12" t="n">
-        <v>33.83647831747451</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="O12" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="P12" t="n">
         <v>85.56614463534068</v>
@@ -35541,22 +35541,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.76555500988653</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>27.92529470288227</v>
       </c>
       <c r="D13" t="n">
-        <v>49.19982542414411</v>
+        <v>49.19982542414391</v>
       </c>
       <c r="E13" t="n">
-        <v>52.70633446262983</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>55.45559345640817</v>
+        <v>55.45559345640797</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>25.68651404660014</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.48316832403405</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>78.492500567693</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35577,16 +35577,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>13.2553413213858</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.56853785797855</v>
+        <v>67.56853785797836</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>118.5115880530826</v>
+        <v>118.5115880530824</v>
       </c>
       <c r="K14" t="n">
-        <v>79.2662442842789</v>
+        <v>12.09815957616259</v>
       </c>
       <c r="L14" t="n">
-        <v>48.88611160301757</v>
+        <v>48.88611160301758</v>
       </c>
       <c r="M14" t="n">
-        <v>122.0492982736043</v>
+        <v>83.56285454860304</v>
       </c>
       <c r="N14" t="n">
-        <v>78.00343736515654</v>
+        <v>78.00343736515656</v>
       </c>
       <c r="O14" t="n">
-        <v>36.37425343351543</v>
+        <v>36.37425343351545</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>105.8295037361487</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1749753030304824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.27388527251662</v>
       </c>
       <c r="L15" t="n">
-        <v>119.7646888156621</v>
+        <v>77.84412822235639</v>
       </c>
       <c r="M15" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="N15" t="n">
-        <v>33.83647831747451</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="O15" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="P15" t="n">
-        <v>85.56614463534068</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35799,28 +35799,28 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>29.67425663193128</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.48316832403405</v>
+        <v>74.48316832403387</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="M16" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>122.0492982736043</v>
+        <v>59.32419522164665</v>
       </c>
       <c r="O16" t="n">
-        <v>29.64993858971368</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>80.28369907349909</v>
+        <v>67.24827617358854</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35887,16 +35887,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.88611160301757</v>
+        <v>48.88611160301758</v>
       </c>
       <c r="M17" t="n">
         <v>83.56285454860304</v>
       </c>
       <c r="N17" t="n">
-        <v>78.00343736515654</v>
+        <v>78.00343736515656</v>
       </c>
       <c r="O17" t="n">
-        <v>36.37425343351543</v>
+        <v>36.37425343351545</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>57.69467765052907</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35914,7 +35914,7 @@
         <v>98.46087464136508</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>70.73010055044004</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>119.7646888156621</v>
+        <v>117.118013494873</v>
       </c>
       <c r="M18" t="n">
-        <v>33.83647831747451</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="N18" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="O18" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="P18" t="n">
-        <v>85.56614463534068</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,25 +36115,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>67.24827617358854</v>
       </c>
       <c r="J20" t="n">
-        <v>44.37106813136273</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>48.88611160301757</v>
+        <v>48.88611160301758</v>
       </c>
       <c r="M20" t="n">
         <v>83.56285454860304</v>
       </c>
       <c r="N20" t="n">
-        <v>78.00343736515654</v>
+        <v>78.00343736515656</v>
       </c>
       <c r="O20" t="n">
-        <v>36.37425343351543</v>
+        <v>36.37425343351545</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36145,13 +36145,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>93.60730859266536</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>98.46087464136514</v>
+        <v>98.46087464136508</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>70.73010055044004</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>119.7646888156621</v>
+        <v>31.55186885953232</v>
       </c>
       <c r="M21" t="n">
-        <v>119.4026229528152</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="N21" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="O21" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>85.56614463534068</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>80.28369907349915</v>
+        <v>80.28369907349911</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36361,28 +36361,28 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>48.88611160301757</v>
+        <v>48.88611160301758</v>
       </c>
       <c r="M23" t="n">
         <v>83.56285454860304</v>
       </c>
       <c r="N23" t="n">
-        <v>78.00343736515654</v>
+        <v>78.00343736515656</v>
       </c>
       <c r="O23" t="n">
-        <v>36.37425343351543</v>
+        <v>36.37425343351545</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>62.54824369922915</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>62.54824369922875</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.60730859266536</v>
+        <v>93.60730859266531</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>33.83647831747471</v>
       </c>
       <c r="L24" t="n">
         <v>119.7646888156621</v>
       </c>
       <c r="M24" t="n">
-        <v>122.0492982736043</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="N24" t="n">
-        <v>119.4026229528152</v>
+        <v>122.0492982736044</v>
       </c>
       <c r="O24" t="n">
-        <v>122.0492982736043</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>85.56614463534068</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.046269626368</v>
+        <v>137.0462696263681</v>
       </c>
       <c r="K26" t="n">
-        <v>207.5549153019833</v>
+        <v>207.5549153019834</v>
       </c>
       <c r="L26" t="n">
-        <v>261.8032688511578</v>
+        <v>261.8032688511579</v>
       </c>
       <c r="M26" t="n">
-        <v>296.4800117967433</v>
+        <v>296.4800117967434</v>
       </c>
       <c r="N26" t="n">
-        <v>290.9205946132968</v>
+        <v>290.9205946132965</v>
       </c>
       <c r="O26" t="n">
         <v>249.2914106816557</v>
       </c>
       <c r="P26" t="n">
-        <v>199.3682333132226</v>
+        <v>199.3682333132221</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.3641853094343</v>
+        <v>124.3641853094344</v>
       </c>
       <c r="R26" t="n">
-        <v>18.70965687631592</v>
+        <v>18.70965687631598</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36729,13 +36729,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>46.45997627616796</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>71.24101603591532</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.01784989731956</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36765,16 +36765,16 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>25.7996746915465</v>
       </c>
       <c r="P28" t="n">
-        <v>155.0207049709724</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>71.79419241611222</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.703619513865048</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.046269626368</v>
+        <v>137.0462696263681</v>
       </c>
       <c r="K29" t="n">
-        <v>207.5549153019833</v>
+        <v>207.5549153019834</v>
       </c>
       <c r="L29" t="n">
-        <v>261.8032688511578</v>
+        <v>261.8032688511579</v>
       </c>
       <c r="M29" t="n">
-        <v>296.4800117967433</v>
+        <v>296.4800117967434</v>
       </c>
       <c r="N29" t="n">
-        <v>290.9205946132968</v>
+        <v>290.9205946132969</v>
       </c>
       <c r="O29" t="n">
         <v>249.2914106816557</v>
@@ -36850,10 +36850,10 @@
         <v>199.3682333132221</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.3641853094343</v>
+        <v>124.3641853094344</v>
       </c>
       <c r="R29" t="n">
-        <v>18.70965687631593</v>
+        <v>18.70965687631599</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36963,7 +36963,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>35.30023658317222</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -36978,7 +36978,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>44.22119561988584</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.01784989731949</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>143.5006670036302</v>
+        <v>146.4463949263719</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>10.55068977151944</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>124.3641853094343</v>
       </c>
       <c r="R32" t="n">
-        <v>18.70965687631592</v>
+        <v>18.70965687631593</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,10 +37206,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>67.73450699742955</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>71.24101603591527</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37218,16 +37218,16 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>47.13555419640311</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>42.93656777817483</v>
       </c>
       <c r="J34" t="n">
-        <v>11.43977443634095</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>146.4463949263718</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.10321943126399</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.497149376212185</v>
+        <v>7.497149376212217</v>
       </c>
       <c r="J35" t="n">
         <v>172.2223462900929</v>
       </c>
       <c r="K35" t="n">
-        <v>242.7309919657081</v>
+        <v>242.7309919657082</v>
       </c>
       <c r="L35" t="n">
         <v>296.9793455148827</v>
       </c>
       <c r="M35" t="n">
-        <v>173.876796357602</v>
+        <v>328.8902835902923</v>
       </c>
       <c r="N35" t="n">
-        <v>78.00343736515654</v>
+        <v>78.00343736515656</v>
       </c>
       <c r="O35" t="n">
-        <v>284.4674873453805</v>
+        <v>36.37425343351545</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>39.19401313913301</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>53.8857335400408</v>
       </c>
       <c r="S35" t="n">
-        <v>20.82075889537839</v>
+        <v>20.82075889537842</v>
       </c>
       <c r="T35" t="n">
-        <v>25.67432494407816</v>
+        <v>25.67432494407819</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37440,7 +37440,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>81.63605293989275</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.825260896036748</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37458,7 +37458,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>58.28753533230681</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37503,7 +37503,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>26.1737785036226</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>7.497149376212217</v>
       </c>
       <c r="J38" t="n">
-        <v>59.37324683227961</v>
+        <v>172.2223462900929</v>
       </c>
       <c r="K38" t="n">
-        <v>242.7309919657081</v>
+        <v>242.7309919657082</v>
       </c>
       <c r="L38" t="n">
-        <v>296.9793455148827</v>
+        <v>48.88611160301758</v>
       </c>
       <c r="M38" t="n">
-        <v>328.8902835902925</v>
+        <v>83.56285454860304</v>
       </c>
       <c r="N38" t="n">
-        <v>78.00343736515654</v>
+        <v>78.00343736515656</v>
       </c>
       <c r="O38" t="n">
-        <v>36.37425343351543</v>
+        <v>284.4674873453806</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>124.9811802076632</v>
       </c>
       <c r="Q38" t="n">
         <v>159.5402619731592</v>
       </c>
       <c r="R38" t="n">
-        <v>53.88573354004076</v>
+        <v>53.8857335400408</v>
       </c>
       <c r="S38" t="n">
-        <v>20.82075889537839</v>
+        <v>20.82075889537842</v>
       </c>
       <c r="T38" t="n">
-        <v>25.67432494407816</v>
+        <v>25.67432494407819</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37677,10 +37677,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>81.63605293989278</v>
       </c>
       <c r="D40" t="n">
-        <v>53.50935273823281</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2.825260896036633</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37743,7 +37743,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>30.95196109769668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -37780,34 +37780,34 @@
         <v>164.7251969138807</v>
       </c>
       <c r="K41" t="n">
-        <v>235.233842589496</v>
+        <v>235.2338425894959</v>
       </c>
       <c r="L41" t="n">
-        <v>48.88611160301757</v>
+        <v>98.58978873831236</v>
       </c>
       <c r="M41" t="n">
-        <v>119.7176077489793</v>
+        <v>83.56285454860304</v>
       </c>
       <c r="N41" t="n">
-        <v>318.5995219008095</v>
+        <v>78.00343736515656</v>
       </c>
       <c r="O41" t="n">
         <v>276.9703379691683</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>227.0471606007347</v>
       </c>
       <c r="Q41" t="n">
         <v>152.043112596947</v>
       </c>
       <c r="R41" t="n">
-        <v>46.38858416382858</v>
+        <v>46.38858416382856</v>
       </c>
       <c r="S41" t="n">
-        <v>13.32360951916621</v>
+        <v>13.32360951916619</v>
       </c>
       <c r="T41" t="n">
-        <v>18.17717556786598</v>
+        <v>18.17717556786595</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37911,16 +37911,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.444675686689227</v>
+        <v>62.9791638706848</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>41.38545513943244</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>98.91994332342793</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>164.7251969138807</v>
       </c>
       <c r="K44" t="n">
-        <v>75.84222027617001</v>
+        <v>44.34143518913781</v>
       </c>
       <c r="L44" t="n">
-        <v>48.88611160301757</v>
+        <v>289.4821961386705</v>
       </c>
       <c r="M44" t="n">
-        <v>83.56285454860304</v>
+        <v>324.158939084256</v>
       </c>
       <c r="N44" t="n">
-        <v>318.5995219008095</v>
+        <v>78.00343736515656</v>
       </c>
       <c r="O44" t="n">
-        <v>276.9703379691683</v>
+        <v>36.37425343351545</v>
       </c>
       <c r="P44" t="n">
         <v>227.0471606007347</v>
@@ -38038,13 +38038,13 @@
         <v>152.043112596947</v>
       </c>
       <c r="R44" t="n">
-        <v>46.38858416382858</v>
+        <v>46.38858416382856</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.32360951916619</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.17717556786595</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>61.74014936665386</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -38193,16 +38193,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>50.12698020993643</v>
       </c>
       <c r="R46" t="n">
-        <v>37.38254680137771</v>
+        <v>37.38254680137769</v>
       </c>
       <c r="S46" t="n">
-        <v>5.241922842085586</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>16.85509199880313</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
